--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ptportugal-my.sharepoint.com/personal/sara-l-silva_telecom_pt/Documents/_DOCs/Formadora/CESAE/Formadora/Algoritmia ou projecto/Turmas/23PRT481DATAN02(LIS)/grupo LME/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dataan\Documents\GitHub\Projeto_Previsao_LME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F06D101-A25C-4757-ABA9-8D43C00D8B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54AE1B9-C5AE-418F-B79F-DD5E90C512F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{65184691-F81F-4474-B278-83B57392A989}"/>
+    <workbookView xWindow="7200" yWindow="4095" windowWidth="21600" windowHeight="11385" xr2:uid="{65184691-F81F-4474-B278-83B57392A989}"/>
   </bookViews>
   <sheets>
-    <sheet name="historico LME" sheetId="1" r:id="rId1"/>
+    <sheet name="historicoLME" sheetId="1" r:id="rId1"/>
     <sheet name="tipos de cabo" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -48,9 +48,6 @@
     <t>USD / Ton Chumbo</t>
   </si>
   <si>
-    <t xml:space="preserve">exchange rate USD / € </t>
-  </si>
-  <si>
     <t>Cabo</t>
   </si>
   <si>
@@ -1246,15 +1243,17 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>exchange rate USD / €</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -1323,7 +1322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1365,9 +1364,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1704,10 +1700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B88588FC-39CB-4743-9C6B-52B3AE2932BC}">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1723,7 +1719,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2649,30 +2645,6 @@
       <c r="D67" s="14">
         <v>1.0903</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
-        <v>118492</v>
-      </c>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="6"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
-        <v>118522</v>
-      </c>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="15"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
-        <v>118553</v>
-      </c>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2683,7 +2655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492871CB-DD5D-48E2-A95E-0640AB44CB46}">
   <dimension ref="A1:F393"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -2698,27 +2670,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D1" t="s">
         <v>398</v>
       </c>
-      <c r="C1" t="s">
-        <v>397</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>399</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>400</v>
-      </c>
-      <c r="F1" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>0.44701640987506419</v>
@@ -2738,7 +2710,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>0.11337234410340713</v>
@@ -2750,15 +2722,15 @@
         <v>0.16352832660223546</v>
       </c>
       <c r="E3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>0.15677264452569029</v>
@@ -2778,7 +2750,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>2.917915376781802</v>
@@ -2790,15 +2762,15 @@
         <v>0.17302559402107587</v>
       </c>
       <c r="E5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>0.85101167348527573</v>
@@ -2818,7 +2790,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>1.2549856214465058</v>
@@ -2830,15 +2802,15 @@
         <v>0.18058284056554064</v>
       </c>
       <c r="E7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>3.5620545925325651</v>
@@ -2850,15 +2822,15 @@
         <v>0.19340919281827026</v>
       </c>
       <c r="E8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>2.5314122370948011</v>
@@ -2878,7 +2850,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>0.68536773465317857</v>
@@ -2898,7 +2870,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>0.36029026281993826</v>
@@ -2918,7 +2890,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>3.6531670808848582</v>
@@ -2938,7 +2910,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>2.7245609841910472</v>
@@ -2958,7 +2930,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>0.30054406263149369</v>
@@ -2978,7 +2950,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>2.6574940128302851</v>
@@ -2990,15 +2962,15 @@
         <v>0.1565024518858088</v>
       </c>
       <c r="E15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>2.3878281560259156</v>
@@ -3018,7 +2990,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>3.4626080853067429</v>
@@ -3038,7 +3010,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>0.86178526534460786</v>
@@ -3058,7 +3030,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>1.8832193030342137</v>
@@ -3078,7 +3050,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>0.6981644834247227</v>
@@ -3090,15 +3062,15 @@
         <v>0.1779837138112349</v>
       </c>
       <c r="E20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>3.519715325890961</v>
@@ -3110,15 +3082,15 @@
         <v>0.15742745202761069</v>
       </c>
       <c r="E21" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F21" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>3.0385400002998137</v>
@@ -3130,15 +3102,15 @@
         <v>0.15985514688579386</v>
       </c>
       <c r="E22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>2.3442526765685865</v>
@@ -3158,7 +3130,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>0.33775182627580946</v>
@@ -3178,7 +3150,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>0.69567441443654587</v>
@@ -3190,15 +3162,15 @@
         <v>0.19254277181080415</v>
       </c>
       <c r="E25" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F25" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <v>2.8619998172115304</v>
@@ -3210,15 +3182,15 @@
         <v>0.15131394413136579</v>
       </c>
       <c r="E26" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F26" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27">
         <v>1.1773637246747741</v>
@@ -3238,7 +3210,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28">
         <v>0.44964350150604071</v>
@@ -3250,15 +3222,15 @@
         <v>0.15658142300916134</v>
       </c>
       <c r="E28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29">
         <v>0.66833182891364595</v>
@@ -3278,7 +3250,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30">
         <v>3.5954088547706129</v>
@@ -3290,15 +3262,15 @@
         <v>0.19729358962940091</v>
       </c>
       <c r="E30" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F30" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31">
         <v>2.6989381930006262</v>
@@ -3318,7 +3290,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32">
         <v>0.71944114612990662</v>
@@ -3330,15 +3302,15 @@
         <v>0.19065959959709453</v>
       </c>
       <c r="E32" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F32" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>2.6028730764856371</v>
@@ -3350,15 +3322,15 @@
         <v>0.19363526729353706</v>
       </c>
       <c r="E33" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F33" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34">
         <v>7.2923887147059663E-2</v>
@@ -3370,15 +3342,15 @@
         <v>0.18475026545695741</v>
       </c>
       <c r="E34" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F34" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35">
         <v>2.5523930368922141</v>
@@ -3398,7 +3370,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36">
         <v>2.8738654417299898</v>
@@ -3418,7 +3390,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37">
         <v>1.4059878933268659</v>
@@ -3430,15 +3402,15 @@
         <v>0.19072562266029869</v>
       </c>
       <c r="E37" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F37" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38">
         <v>0.64616507255983269</v>
@@ -3458,7 +3430,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39">
         <v>1.2144458858491145</v>
@@ -3478,7 +3450,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40">
         <v>0.88566588321247508</v>
@@ -3498,7 +3470,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41">
         <v>4.0302327284368999E-2</v>
@@ -3510,15 +3482,15 @@
         <v>0.15149848333045227</v>
       </c>
       <c r="E41" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F41" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42">
         <v>2.2286029612292393</v>
@@ -3538,7 +3510,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43">
         <v>1.3259285403281056</v>
@@ -3550,15 +3522,15 @@
         <v>0.16973067267063816</v>
       </c>
       <c r="E43" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F43" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44">
         <v>3.0120839879908532</v>
@@ -3578,7 +3550,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45">
         <v>0.81063968459911262</v>
@@ -3590,15 +3562,15 @@
         <v>0.17977516331728605</v>
       </c>
       <c r="E45" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F45" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46">
         <v>3.1607948996329127</v>
@@ -3610,15 +3582,15 @@
         <v>0.17890915696832832</v>
       </c>
       <c r="E46" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F46" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47">
         <v>0.92665592038896305</v>
@@ -3638,7 +3610,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48">
         <v>2.5441875579384283</v>
@@ -3650,15 +3622,15 @@
         <v>0.19229565685887287</v>
       </c>
       <c r="E48" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F48" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49">
         <v>1.0306567636409478</v>
@@ -3678,7 +3650,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50">
         <v>1.3637057106644517</v>
@@ -3698,7 +3670,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51">
         <v>1.0004410026373769</v>
@@ -3710,15 +3682,15 @@
         <v>0.17673224273865762</v>
       </c>
       <c r="E51" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F51" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52">
         <v>0.34026327975854631</v>
@@ -3730,15 +3702,15 @@
         <v>0.17822338959014394</v>
       </c>
       <c r="E52" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F52" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53">
         <v>3.1619387626862934</v>
@@ -3758,7 +3730,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54">
         <v>0.22080795384429441</v>
@@ -3778,7 +3750,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55">
         <v>2.7134379627703349</v>
@@ -3790,15 +3762,15 @@
         <v>0.15641188500282222</v>
       </c>
       <c r="E55" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F55" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56">
         <v>2.7728907908498006</v>
@@ -3818,7 +3790,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57">
         <v>3.9317834152198841</v>
@@ -3830,15 +3802,15 @@
         <v>0.1953726840134857</v>
       </c>
       <c r="E57" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F57" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58">
         <v>3.8543981238081861</v>
@@ -3858,7 +3830,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59">
         <v>3.0745110268730778</v>
@@ -3878,7 +3850,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60">
         <v>0.19923320963524116</v>
@@ -3898,7 +3870,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61">
         <v>2.9511518203844562</v>
@@ -3910,15 +3882,15 @@
         <v>0.15413032217453615</v>
       </c>
       <c r="E61" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F61" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62">
         <v>1.7276175461483056</v>
@@ -3938,7 +3910,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63">
         <v>1.8296424924272059</v>
@@ -3950,15 +3922,15 @@
         <v>0.18823177338058683</v>
       </c>
       <c r="E63" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F63" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64">
         <v>0.62039498513133129</v>
@@ -3970,15 +3942,15 @@
         <v>0.18777290595505819</v>
       </c>
       <c r="E64" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F64" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65">
         <v>3.7509786575291542</v>
@@ -3990,15 +3962,15 @@
         <v>0.19137288999153376</v>
       </c>
       <c r="E65" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F65" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66">
         <v>2.3934258200277854</v>
@@ -4010,15 +3982,15 @@
         <v>0.19669289343132235</v>
       </c>
       <c r="E66" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F66" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67">
         <v>0.37575499064984719</v>
@@ -4038,7 +4010,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68">
         <v>1.5114030083470555</v>
@@ -4050,15 +4022,15 @@
         <v>0.15696860563116882</v>
       </c>
       <c r="E68" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F68" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69">
         <v>0.67934939956918727</v>
@@ -4078,7 +4050,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70">
         <v>1.2990305062245073</v>
@@ -4098,7 +4070,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71">
         <v>0.824114537270634</v>
@@ -4118,7 +4090,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72">
         <v>1.1495222804537324</v>
@@ -4130,15 +4102,15 @@
         <v>0.18311121443736017</v>
       </c>
       <c r="E72" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F72" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73">
         <v>2.8096226392360388</v>
@@ -4150,15 +4122,15 @@
         <v>0.17120333436739726</v>
       </c>
       <c r="E73" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F73" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74">
         <v>3.1544014758761629</v>
@@ -4170,15 +4142,15 @@
         <v>0.19119359506430539</v>
       </c>
       <c r="E74" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F74" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75">
         <v>3.9716040867406179</v>
@@ -4190,15 +4162,15 @@
         <v>0.1778868924757129</v>
       </c>
       <c r="E75" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F75" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76">
         <v>2.2853684626008581</v>
@@ -4218,7 +4190,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77">
         <v>0.99376655163462946</v>
@@ -4238,7 +4210,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78">
         <v>2.1201613767373617</v>
@@ -4258,7 +4230,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79">
         <v>2.3236096409517781</v>
@@ -4270,15 +4242,15 @@
         <v>0.17198874627922101</v>
       </c>
       <c r="E79" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F79" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80">
         <v>1.0183015720244271E-4</v>
@@ -4290,15 +4262,15 @@
         <v>0.15201608662398294</v>
       </c>
       <c r="E80" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F80" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81">
         <v>0.50228059729032548</v>
@@ -4310,15 +4282,15 @@
         <v>0.18916131812718784</v>
       </c>
       <c r="E81" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F81" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82">
         <v>3.0090738011629838</v>
@@ -4338,7 +4310,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83">
         <v>0.70424174711800536</v>
@@ -4350,15 +4322,15 @@
         <v>0.19379905167127426</v>
       </c>
       <c r="E83" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F83" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84">
         <v>0.58932667126613048</v>
@@ -4370,15 +4342,15 @@
         <v>0.15823066975057115</v>
       </c>
       <c r="E84" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F84" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85">
         <v>2.3078835100985273</v>
@@ -4390,15 +4362,15 @@
         <v>0.16312461561698388</v>
       </c>
       <c r="E85" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F85" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86">
         <v>1.612870181664579</v>
@@ -4418,7 +4390,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B87">
         <v>1.3143462800637122</v>
@@ -4430,15 +4402,15 @@
         <v>0.15700174664989291</v>
       </c>
       <c r="E87" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F87" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B88">
         <v>2.4089567062012711</v>
@@ -4458,7 +4430,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B89">
         <v>1.7498572357837352</v>
@@ -4478,7 +4450,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B90">
         <v>2.4627170703282935</v>
@@ -4490,15 +4462,15 @@
         <v>0.17633633292952183</v>
       </c>
       <c r="E90" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F90" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B91">
         <v>3.1657066462568073</v>
@@ -4510,15 +4482,15 @@
         <v>0.19378285069580389</v>
       </c>
       <c r="E91" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F91" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B92">
         <v>3.09876545816407</v>
@@ -4530,15 +4502,15 @@
         <v>0.1628542071486726</v>
       </c>
       <c r="E92" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F92" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B93">
         <v>1.0298387908541184</v>
@@ -4550,15 +4522,15 @@
         <v>0.18062283506654392</v>
       </c>
       <c r="E93" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F93" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B94">
         <v>1.4859762680538289</v>
@@ -4578,7 +4550,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B95">
         <v>1.1959211086180157</v>
@@ -4590,15 +4562,15 @@
         <v>0.19042544962908528</v>
       </c>
       <c r="E95" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F95" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B96">
         <v>0.14943093110439998</v>
@@ -4610,15 +4582,15 @@
         <v>0.16912702253854184</v>
       </c>
       <c r="E96" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F96" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B97">
         <v>2.7511823218339804</v>
@@ -4638,7 +4610,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B98">
         <v>0.45447032817418487</v>
@@ -4658,7 +4630,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B99">
         <v>1.0910285331234211</v>
@@ -4678,7 +4650,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B100">
         <v>3.6227309673255479</v>
@@ -4698,7 +4670,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B101">
         <v>0.32779007607524413</v>
@@ -4710,15 +4682,15 @@
         <v>0.18170674631428307</v>
       </c>
       <c r="E101" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F101" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B102">
         <v>2.2970449087215732</v>
@@ -4738,7 +4710,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B103">
         <v>6.0385358444122073E-2</v>
@@ -4750,15 +4722,15 @@
         <v>0.18145462448045535</v>
       </c>
       <c r="E103" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F103" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B104">
         <v>0.73837008465923049</v>
@@ -4778,7 +4750,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B105">
         <v>0.43051830245593825</v>
@@ -4798,7 +4770,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B106">
         <v>2.2335439180566277</v>
@@ -4818,7 +4790,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B107">
         <v>0.27140849787379118</v>
@@ -4838,7 +4810,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B108">
         <v>2.4967032816633421</v>
@@ -4858,7 +4830,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B109">
         <v>2.1454830965992762</v>
@@ -4878,7 +4850,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B110">
         <v>2.8428573191637079</v>
@@ -4890,15 +4862,15 @@
         <v>0.15798179731934955</v>
       </c>
       <c r="E110" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F110" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B111">
         <v>0.64878437294712121</v>
@@ -4910,15 +4882,15 @@
         <v>0.1964949354074193</v>
       </c>
       <c r="E111" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F111" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B112">
         <v>1.9463198653846208</v>
@@ -4930,15 +4902,15 @@
         <v>0.17634604438274845</v>
       </c>
       <c r="E112" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F112" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B113">
         <v>1.6922338844062423</v>
@@ -4950,15 +4922,15 @@
         <v>0.16913695718203589</v>
       </c>
       <c r="E113" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F113" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B114">
         <v>1.92659421396815</v>
@@ -4970,15 +4942,15 @@
         <v>0.15332940857129437</v>
       </c>
       <c r="E114" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F114" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B115">
         <v>3.0421257983626186</v>
@@ -4998,7 +4970,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B116">
         <v>1.8720157781144056</v>
@@ -5010,15 +4982,15 @@
         <v>0.15849183737014105</v>
       </c>
       <c r="E116" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F116" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B117">
         <v>3.0610410110463753</v>
@@ -5030,15 +5002,15 @@
         <v>0.17888226125123771</v>
       </c>
       <c r="E117" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F117" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B118">
         <v>2.2948300931785202</v>
@@ -5058,7 +5030,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B119">
         <v>2.3242998095633132</v>
@@ -5070,15 +5042,15 @@
         <v>0.16980650573136402</v>
       </c>
       <c r="E119" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F119" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B120">
         <v>3.9818645951167659</v>
@@ -5090,15 +5062,15 @@
         <v>0.18649938880151196</v>
       </c>
       <c r="E120" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F120" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B121">
         <v>3.1560659928538333</v>
@@ -5110,15 +5082,15 @@
         <v>0.15480569380832576</v>
       </c>
       <c r="E121" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F121" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B122">
         <v>0.18686089737260447</v>
@@ -5130,15 +5102,15 @@
         <v>0.1623717286269627</v>
       </c>
       <c r="E122" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F122" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B123">
         <v>1.4302545242417883</v>
@@ -5158,7 +5130,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B124">
         <v>0.21889585233316655</v>
@@ -5170,15 +5142,15 @@
         <v>0.19374341329899314</v>
       </c>
       <c r="E124" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F124" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B125">
         <v>1.2684590455406846</v>
@@ -5190,15 +5162,15 @@
         <v>0.19382454012137124</v>
       </c>
       <c r="E125" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F125" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B126">
         <v>1.9454293814974184</v>
@@ -5218,7 +5190,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B127">
         <v>3.5444678968513683</v>
@@ -5238,7 +5210,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B128">
         <v>2.9997691604344521</v>
@@ -5258,7 +5230,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B129">
         <v>1.1887578843497093</v>
@@ -5278,7 +5250,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B130">
         <v>2.9824814771089323</v>
@@ -5290,15 +5262,15 @@
         <v>0.17762515184169284</v>
       </c>
       <c r="E130" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F130" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B131">
         <v>2.4549909934010534</v>
@@ -5318,7 +5290,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B132">
         <v>1.6701294045096433</v>
@@ -5330,15 +5302,15 @@
         <v>0.1602226843645651</v>
       </c>
       <c r="E132" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F132" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B133">
         <v>2.2465610765610311</v>
@@ -5350,15 +5322,15 @@
         <v>0.18833895524260302</v>
       </c>
       <c r="E133" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F133" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B134">
         <v>3.9190186297788303</v>
@@ -5370,15 +5342,15 @@
         <v>0.16178420010642325</v>
       </c>
       <c r="E134" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F134" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B135">
         <v>2.1351058920787844</v>
@@ -5390,15 +5362,15 @@
         <v>0.15451783024109925</v>
       </c>
       <c r="E135" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F135" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B136">
         <v>3.8517459958983773</v>
@@ -5410,15 +5382,15 @@
         <v>0.1890186676806454</v>
       </c>
       <c r="E136" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F136" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B137">
         <v>1.2803806281553114</v>
@@ -5430,15 +5402,15 @@
         <v>0.17724055697340407</v>
       </c>
       <c r="E137" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F137" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B138">
         <v>0.39588816832007279</v>
@@ -5458,7 +5430,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B139">
         <v>2.7062833029456805</v>
@@ -5470,15 +5442,15 @@
         <v>0.19992899204370895</v>
       </c>
       <c r="E139" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F139" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B140">
         <v>2.1818761519156467</v>
@@ -5498,7 +5470,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B141">
         <v>1.5181707613731197</v>
@@ -5510,15 +5482,15 @@
         <v>0.19465220634592087</v>
       </c>
       <c r="E141" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F141" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B142">
         <v>2.0350008673727755</v>
@@ -5530,15 +5502,15 @@
         <v>0.17246062823409045</v>
       </c>
       <c r="E142" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F142" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B143">
         <v>1.5670733122591014</v>
@@ -5550,15 +5522,15 @@
         <v>0.15658383669428344</v>
       </c>
       <c r="E143" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F143" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B144">
         <v>1.3280335402613312</v>
@@ -5578,7 +5550,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B145">
         <v>2.015735468366239</v>
@@ -5598,7 +5570,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B146">
         <v>2.2683266178607666</v>
@@ -5610,15 +5582,15 @@
         <v>0.1529426592292113</v>
       </c>
       <c r="E146" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F146" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B147">
         <v>2.2454927445442925</v>
@@ -5630,15 +5602,15 @@
         <v>0.18766809197922832</v>
       </c>
       <c r="E147" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F147" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B148">
         <v>3.7587731428476925</v>
@@ -5658,7 +5630,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B149">
         <v>0.14459192015042799</v>
@@ -5670,15 +5642,15 @@
         <v>0.17590018174277661</v>
       </c>
       <c r="E149" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F149" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B150">
         <v>0.20868392127129409</v>
@@ -5690,15 +5662,15 @@
         <v>0.17258171651004198</v>
       </c>
       <c r="E150" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F150" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B151">
         <v>1.2323674837905787</v>
@@ -5710,15 +5682,15 @@
         <v>0.19543393591983269</v>
       </c>
       <c r="E151" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F151" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B152">
         <v>2.6390404260998097</v>
@@ -5730,15 +5702,15 @@
         <v>0.1515379242954068</v>
       </c>
       <c r="E152" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F152" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B153">
         <v>3.2652354348148278</v>
@@ -5758,7 +5730,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B154">
         <v>2.4245585530192466</v>
@@ -5778,7 +5750,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B155">
         <v>3.064644378515613</v>
@@ -5790,15 +5762,15 @@
         <v>0.17064159518723376</v>
       </c>
       <c r="E155" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F155" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B156">
         <v>1.4143065493267599</v>
@@ -5818,7 +5790,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B157">
         <v>2.6659792465697838</v>
@@ -5838,7 +5810,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B158">
         <v>3.2008672195348828</v>
@@ -5858,7 +5830,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B159">
         <v>0.58565271475860126</v>
@@ -5870,15 +5842,15 @@
         <v>0.17632038125277558</v>
       </c>
       <c r="E159" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F159" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B160">
         <v>3.8605861797025542</v>
@@ -5890,15 +5862,15 @@
         <v>0.15341309689170438</v>
       </c>
       <c r="E160" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F160" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B161">
         <v>1.4215285067742935</v>
@@ -5918,7 +5890,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B162">
         <v>0.28057004383104323</v>
@@ -5938,7 +5910,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B163">
         <v>3.9295161771134945</v>
@@ -5950,15 +5922,15 @@
         <v>0.1779468871253003</v>
       </c>
       <c r="E163" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F163" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B164">
         <v>1.4189760631236008</v>
@@ -5970,15 +5942,15 @@
         <v>0.15771480782997535</v>
       </c>
       <c r="E164" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F164" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B165">
         <v>1.3305497067587231</v>
@@ -5998,7 +5970,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B166">
         <v>0.73064272124919194</v>
@@ -6018,7 +5990,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B167">
         <v>1.2983594543711878</v>
@@ -6038,7 +6010,7 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B168">
         <v>3.6092086231183083</v>
@@ -6058,7 +6030,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B169">
         <v>2.8927296431096612</v>
@@ -6070,15 +6042,15 @@
         <v>0.17423699592608535</v>
       </c>
       <c r="E169" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F169" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B170">
         <v>3.0521914047709777</v>
@@ -6090,15 +6062,15 @@
         <v>0.19207437628469051</v>
       </c>
       <c r="E170" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F170" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B171">
         <v>0.37596753901485602</v>
@@ -6118,7 +6090,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B172">
         <v>3.3225973065079026</v>
@@ -6130,15 +6102,15 @@
         <v>0.16204637834359903</v>
       </c>
       <c r="E172" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F172" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B173">
         <v>3.2750481821477013</v>
@@ -6158,7 +6130,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B174">
         <v>0.8793381420325117</v>
@@ -6170,15 +6142,15 @@
         <v>0.15374723024861248</v>
       </c>
       <c r="E174" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F174" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B175">
         <v>2.6255010069404841</v>
@@ -6190,15 +6162,15 @@
         <v>0.16589580327413131</v>
       </c>
       <c r="E175" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F175" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B176">
         <v>3.283894677309608</v>
@@ -6210,15 +6182,15 @@
         <v>0.15033643400599853</v>
       </c>
       <c r="E176" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F176" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B177">
         <v>3.0837690926179544</v>
@@ -6238,7 +6210,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B178">
         <v>1.0052519666253561</v>
@@ -6258,7 +6230,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B179">
         <v>1.4679386169404758</v>
@@ -6270,15 +6242,15 @@
         <v>0.15796629168247214</v>
       </c>
       <c r="E179" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F179" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B180">
         <v>1.6936046438633978</v>
@@ -6290,15 +6262,15 @@
         <v>0.19212298770571126</v>
       </c>
       <c r="E180" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F180" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B181">
         <v>3.9090725009813467</v>
@@ -6310,15 +6282,15 @@
         <v>0.15260384738443383</v>
       </c>
       <c r="E181" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F181" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B182">
         <v>3.76952024677554</v>
@@ -6330,15 +6302,15 @@
         <v>0.18182730640291897</v>
       </c>
       <c r="E182" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F182" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B183">
         <v>2.1201717378243612</v>
@@ -6358,7 +6330,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B184">
         <v>1.8787117569616303</v>
@@ -6370,15 +6342,15 @@
         <v>0.16954286696720666</v>
       </c>
       <c r="E184" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F184" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B185">
         <v>2.6117621702649485</v>
@@ -6398,7 +6370,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B186">
         <v>1.5603857208055767</v>
@@ -6410,15 +6382,15 @@
         <v>0.17056961627123976</v>
       </c>
       <c r="E186" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F186" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B187">
         <v>1.0195485027604465</v>
@@ -6430,15 +6402,15 @@
         <v>0.19447277306417057</v>
       </c>
       <c r="E187" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F187" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B188">
         <v>2.8136416345315682</v>
@@ -6458,7 +6430,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B189">
         <v>3.0970816477415029</v>
@@ -6470,15 +6442,15 @@
         <v>0.17654373961375364</v>
       </c>
       <c r="E189" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F189" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B190">
         <v>1.8148241769701867</v>
@@ -6498,7 +6470,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B191">
         <v>0.17648784178519694</v>
@@ -6510,15 +6482,15 @@
         <v>0.19790726332584346</v>
       </c>
       <c r="E191" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F191" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B192">
         <v>0.60378435243973749</v>
@@ -6530,15 +6502,15 @@
         <v>0.1528803530870658</v>
       </c>
       <c r="E192" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F192" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B193">
         <v>2.8269486174748066</v>
@@ -6558,7 +6530,7 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B194">
         <v>2.7973024087790126</v>
@@ -6570,15 +6542,15 @@
         <v>0.16677270765093069</v>
       </c>
       <c r="E194" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F194" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B195">
         <v>1.7158038019550399</v>
@@ -6590,15 +6562,15 @@
         <v>0.16024441006771262</v>
       </c>
       <c r="E195" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F195" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B196">
         <v>2.8511821706634479</v>
@@ -6610,15 +6582,15 @@
         <v>0.18278635809057353</v>
       </c>
       <c r="E196" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F196" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B197">
         <v>1.1855055032730615</v>
@@ -6638,7 +6610,7 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B198">
         <v>0.5023615537045516</v>
@@ -6650,15 +6622,15 @@
         <v>0.16704323617398673</v>
       </c>
       <c r="E198" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F198" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B199">
         <v>1.238516547343909</v>
@@ -6670,15 +6642,15 @@
         <v>0.156326358638641</v>
       </c>
       <c r="E199" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F199" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B200">
         <v>2.6600419952070613</v>
@@ -6690,15 +6662,15 @@
         <v>0.16852455555604448</v>
       </c>
       <c r="E200" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F200" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B201">
         <v>1.0087955405042077</v>
@@ -6718,7 +6690,7 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B202">
         <v>2.5841962379476198</v>
@@ -6738,7 +6710,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B203">
         <v>1.0004579828223981</v>
@@ -6750,15 +6722,15 @@
         <v>0.15234226965886866</v>
       </c>
       <c r="E203" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F203" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B204">
         <v>2.8282478481725648</v>
@@ -6770,15 +6742,15 @@
         <v>0.179851378575934</v>
       </c>
       <c r="E204" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F204" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B205">
         <v>1.4508446354274271</v>
@@ -6798,7 +6770,7 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B206">
         <v>0.79040439787584482</v>
@@ -6810,15 +6782,15 @@
         <v>0.16100574470520471</v>
       </c>
       <c r="E206" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F206" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B207">
         <v>3.7420609813525476</v>
@@ -6830,15 +6802,15 @@
         <v>0.18210338082550392</v>
       </c>
       <c r="E207" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F207" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B208">
         <v>8.3314434275455262E-2</v>
@@ -6858,7 +6830,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B209">
         <v>2.2587123270592007</v>
@@ -6870,15 +6842,15 @@
         <v>0.17295731790311922</v>
       </c>
       <c r="E209" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F209" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B210">
         <v>3.9084029941072349</v>
@@ -6898,7 +6870,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B211">
         <v>3.8996566810121198</v>
@@ -6918,7 +6890,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B212">
         <v>1.7439680833522009</v>
@@ -6938,7 +6910,7 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B213">
         <v>7.9380138594818739E-2</v>
@@ -6950,15 +6922,15 @@
         <v>0.16449019479970883</v>
       </c>
       <c r="E213" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F213" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B214">
         <v>1.1530074240288428</v>
@@ -6970,15 +6942,15 @@
         <v>0.19076016776371588</v>
       </c>
       <c r="E214" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F214" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B215">
         <v>1.2499722505535438</v>
@@ -6998,7 +6970,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B216">
         <v>0.46819506898353103</v>
@@ -7010,15 +6982,15 @@
         <v>0.18341532800152119</v>
       </c>
       <c r="E216" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F216" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B217">
         <v>1.3988889557249511</v>
@@ -7030,15 +7002,15 @@
         <v>0.16182649952254846</v>
       </c>
       <c r="E217" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F217" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B218">
         <v>2.3735723592825675</v>
@@ -7050,15 +7022,15 @@
         <v>0.15791094854289184</v>
       </c>
       <c r="E218" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F218" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B219">
         <v>0.20636448747142389</v>
@@ -7070,15 +7042,15 @@
         <v>0.19086185056833421</v>
       </c>
       <c r="E219" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F219" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B220">
         <v>1.6472396570599366</v>
@@ -7098,7 +7070,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B221">
         <v>1.819997267623179</v>
@@ -7110,15 +7082,15 @@
         <v>0.1859438974663212</v>
       </c>
       <c r="E221" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F221" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B222">
         <v>2.7903394910338815</v>
@@ -7130,15 +7102,15 @@
         <v>0.19117485086798458</v>
       </c>
       <c r="E222" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F222" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B223">
         <v>3.5044364287768364</v>
@@ -7150,15 +7122,15 @@
         <v>0.19913853261400713</v>
       </c>
       <c r="E223" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F223" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B224">
         <v>2.6836246452519879</v>
@@ -7178,7 +7150,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B225">
         <v>0.77111309117601978</v>
@@ -7198,7 +7170,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B226">
         <v>3.1046994477359955</v>
@@ -7210,15 +7182,15 @@
         <v>0.17466053865135109</v>
       </c>
       <c r="E226" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F226" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B227">
         <v>3.0158672637417854</v>
@@ -7238,7 +7210,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B228">
         <v>3.3838467302699557</v>
@@ -7258,7 +7230,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B229">
         <v>1.7563956615818173</v>
@@ -7278,7 +7250,7 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B230">
         <v>3.8869831451580912</v>
@@ -7290,15 +7262,15 @@
         <v>0.16127667760900785</v>
       </c>
       <c r="E230" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F230" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B231">
         <v>0.4093125371455284</v>
@@ -7318,7 +7290,7 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B232">
         <v>3.3108669270369009</v>
@@ -7338,7 +7310,7 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B233">
         <v>1.195061712892298</v>
@@ -7358,7 +7330,7 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B234">
         <v>2.706201890398551</v>
@@ -7378,7 +7350,7 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B235">
         <v>1.94172250640796</v>
@@ -7398,7 +7370,7 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B236">
         <v>3.8713767925971894</v>
@@ -7410,15 +7382,15 @@
         <v>0.17798509101016857</v>
       </c>
       <c r="E236" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F236" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B237">
         <v>1.5009890909965566</v>
@@ -7430,15 +7402,15 @@
         <v>0.17101600017809127</v>
       </c>
       <c r="E237" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F237" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B238">
         <v>1.3284816896634823</v>
@@ -7450,15 +7422,15 @@
         <v>0.16565635882829535</v>
       </c>
       <c r="E238" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F238" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B239">
         <v>1.5581866147936125</v>
@@ -7470,15 +7442,15 @@
         <v>0.17719387302347467</v>
       </c>
       <c r="E239" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F239" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B240">
         <v>3.9071579183998435</v>
@@ -7498,7 +7470,7 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B241">
         <v>3.428145975937761</v>
@@ -7518,7 +7490,7 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B242">
         <v>1.1919577870143465</v>
@@ -7530,15 +7502,15 @@
         <v>0.1761519805713358</v>
       </c>
       <c r="E242" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F242" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B243">
         <v>1.6098403886571138</v>
@@ -7550,15 +7522,15 @@
         <v>0.15212643915063614</v>
       </c>
       <c r="E243" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F243" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B244">
         <v>8.841235533934011E-2</v>
@@ -7578,7 +7550,7 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B245">
         <v>1.7834807469096261</v>
@@ -7598,7 +7570,7 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B246">
         <v>3.2258562277972955</v>
@@ -7610,15 +7582,15 @@
         <v>0.19386059981028489</v>
       </c>
       <c r="E246" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F246" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B247">
         <v>3.0420375965725399</v>
@@ -7630,15 +7602,15 @@
         <v>0.19684173805049737</v>
       </c>
       <c r="E247" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F247" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B248">
         <v>1.3475138607554964</v>
@@ -7650,15 +7622,15 @@
         <v>0.15874263451913603</v>
       </c>
       <c r="E248" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F248" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B249">
         <v>2.4401184569417569</v>
@@ -7678,7 +7650,7 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B250">
         <v>3.4019712070246491</v>
@@ -7690,15 +7662,15 @@
         <v>0.1672413840723832</v>
       </c>
       <c r="E250" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F250" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B251">
         <v>3.5035859280399753</v>
@@ -7718,7 +7690,7 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B252">
         <v>2.8437805530696458</v>
@@ -7738,7 +7710,7 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B253">
         <v>1.0889917854483895</v>
@@ -7750,15 +7722,15 @@
         <v>0.16273293114236062</v>
       </c>
       <c r="E253" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F253" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B254">
         <v>3.5913872815082608</v>
@@ -7778,7 +7750,7 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B255">
         <v>2.7125527040491186</v>
@@ -7790,15 +7762,15 @@
         <v>0.19622187953944389</v>
       </c>
       <c r="E255" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F255" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B256">
         <v>3.0247904877599483</v>
@@ -7810,15 +7782,15 @@
         <v>0.19935544021386906</v>
       </c>
       <c r="E256" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F256" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B257">
         <v>1.8971330171641592</v>
@@ -7830,15 +7802,15 @@
         <v>0.17722248978503188</v>
       </c>
       <c r="E257" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F257" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B258">
         <v>2.2973602236768094</v>
@@ -7850,15 +7822,15 @@
         <v>0.18241112190114739</v>
       </c>
       <c r="E258" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F258" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B259">
         <v>3.9984473149997029</v>
@@ -7878,7 +7850,7 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B260">
         <v>2.3109643795877801</v>
@@ -7890,15 +7862,15 @@
         <v>0.16446028222884201</v>
       </c>
       <c r="E260" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F260" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B261">
         <v>3.0890616541615037</v>
@@ -7918,7 +7890,7 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B262">
         <v>0.77247863324311261</v>
@@ -7938,7 +7910,7 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B263">
         <v>3.4425143927014394</v>
@@ -7958,7 +7930,7 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B264">
         <v>2.8130183543590941</v>
@@ -7970,15 +7942,15 @@
         <v>0.1929359552711839</v>
       </c>
       <c r="E264" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F264" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B265">
         <v>3.4149603036852305</v>
@@ -7998,7 +7970,7 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B266">
         <v>1.7975096739012169</v>
@@ -8010,15 +7982,15 @@
         <v>0.15312806418113889</v>
       </c>
       <c r="E266" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F266" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B267">
         <v>2.7667943361604532</v>
@@ -8030,15 +8002,15 @@
         <v>0.17216243963757691</v>
       </c>
       <c r="E267" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F267" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B268">
         <v>4.8621316271457715E-4</v>
@@ -8050,15 +8022,15 @@
         <v>0.18565330710788872</v>
       </c>
       <c r="E268" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F268" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B269">
         <v>1.1064194084154639</v>
@@ -8078,7 +8050,7 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B270">
         <v>3.631356006920551</v>
@@ -8090,15 +8062,15 @@
         <v>0.18868749155475645</v>
       </c>
       <c r="E270" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F270" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B271">
         <v>1.9366455344795011</v>
@@ -8110,15 +8082,15 @@
         <v>0.18914392367488564</v>
       </c>
       <c r="E271" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F271" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B272">
         <v>1.108011324255449</v>
@@ -8130,15 +8102,15 @@
         <v>0.15371818657009415</v>
       </c>
       <c r="E272" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F272" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B273">
         <v>1.1661941423639255</v>
@@ -8150,15 +8122,15 @@
         <v>0.1960811938771479</v>
       </c>
       <c r="E273" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F273" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B274">
         <v>0.97231301553844451</v>
@@ -8170,15 +8142,15 @@
         <v>0.17753211124038468</v>
       </c>
       <c r="E274" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F274" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B275">
         <v>0.14907771536547232</v>
@@ -8190,15 +8162,15 @@
         <v>0.15992827881170418</v>
       </c>
       <c r="E275" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F275" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B276">
         <v>2.9676074400625465</v>
@@ -8210,15 +8182,15 @@
         <v>0.15197521571379297</v>
       </c>
       <c r="E276" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F276" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B277">
         <v>0.79086816194233167</v>
@@ -8238,7 +8210,7 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B278">
         <v>3.2585861880952951</v>
@@ -8258,7 +8230,7 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B279">
         <v>2.7349377789889036</v>
@@ -8278,7 +8250,7 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B280">
         <v>0.4000759397595397</v>
@@ -8290,15 +8262,15 @@
         <v>0.16473395493822607</v>
       </c>
       <c r="E280" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F280" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B281">
         <v>1.6273772983884882E-2</v>
@@ -8310,15 +8282,15 @@
         <v>0.19511459357335767</v>
       </c>
       <c r="E281" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F281" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B282">
         <v>0.65283125574782686</v>
@@ -8338,7 +8310,7 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B283">
         <v>1.7298049054832672</v>
@@ -8358,7 +8330,7 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B284">
         <v>0.43762422739572315</v>
@@ -8378,7 +8350,7 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B285">
         <v>2.8468628603392849</v>
@@ -8398,7 +8370,7 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B286">
         <v>1.8672822479220508</v>
@@ -8418,7 +8390,7 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B287">
         <v>2.1290698410926185</v>
@@ -8438,7 +8410,7 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B288">
         <v>2.2998618521680658</v>
@@ -8450,15 +8422,15 @@
         <v>0.15700728339273889</v>
       </c>
       <c r="E288" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F288" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B289">
         <v>2.8013088727712434</v>
@@ -8478,7 +8450,7 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B290">
         <v>3.4659369406533718</v>
@@ -8490,15 +8462,15 @@
         <v>0.16537195100384292</v>
       </c>
       <c r="E290" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F290" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B291">
         <v>3.8180387925579335</v>
@@ -8510,15 +8482,15 @@
         <v>0.19047083600901032</v>
       </c>
       <c r="E291" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F291" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B292">
         <v>2.041739740743342</v>
@@ -8538,7 +8510,7 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B293">
         <v>3.5415386650772773</v>
@@ -8550,15 +8522,15 @@
         <v>0.17883273068678826</v>
       </c>
       <c r="E293" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F293" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B294">
         <v>2.6687521848308706</v>
@@ -8570,15 +8542,15 @@
         <v>0.16020657658975893</v>
       </c>
       <c r="E294" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F294" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B295">
         <v>1.2358497695620598</v>
@@ -8590,15 +8562,15 @@
         <v>0.15666029116047431</v>
       </c>
       <c r="E295" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F295" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B296">
         <v>3.9758820805339754</v>
@@ -8610,15 +8582,15 @@
         <v>0.18318076609457368</v>
       </c>
       <c r="E296" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F296" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B297">
         <v>3.569351711180099</v>
@@ -8630,15 +8602,15 @@
         <v>0.19580545140618341</v>
       </c>
       <c r="E297" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F297" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B298">
         <v>0.98108532619346756</v>
@@ -8658,7 +8630,7 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B299">
         <v>2.1889037120840507</v>
@@ -8670,15 +8642,15 @@
         <v>0.17949186448417864</v>
       </c>
       <c r="E299" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F299" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B300">
         <v>1.7326870547105089</v>
@@ -8698,7 +8670,7 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B301">
         <v>3.0080230130511887</v>
@@ -8718,7 +8690,7 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B302">
         <v>3.4696460820790587</v>
@@ -8738,7 +8710,7 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B303">
         <v>0.28341655381212583</v>
@@ -8758,7 +8730,7 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B304">
         <v>2.9402189276863129</v>
@@ -8770,15 +8742,15 @@
         <v>0.16088082647938989</v>
       </c>
       <c r="E304" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F304" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B305">
         <v>0.73447491207365756</v>
@@ -8798,7 +8770,7 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B306">
         <v>3.1695250710938772</v>
@@ -8818,7 +8790,7 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B307">
         <v>1.0216617340030978</v>
@@ -8830,15 +8802,15 @@
         <v>0.18373499405847857</v>
       </c>
       <c r="E307" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F307" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B308">
         <v>2.6029594114070584</v>
@@ -8858,7 +8830,7 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B309">
         <v>3.2573238087582035</v>
@@ -8870,15 +8842,15 @@
         <v>0.19966784804154883</v>
       </c>
       <c r="E309" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F309" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B310">
         <v>2.2926517643080446</v>
@@ -8898,7 +8870,7 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B311">
         <v>3.1639864170085001</v>
@@ -8910,15 +8882,15 @@
         <v>0.17624105983834407</v>
       </c>
       <c r="E311" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F311" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B312">
         <v>1.8467302900526432</v>
@@ -8930,15 +8902,15 @@
         <v>0.18910401630142501</v>
       </c>
       <c r="E312" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F312" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B313">
         <v>3.4497366329725243</v>
@@ -8958,7 +8930,7 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B314">
         <v>2.099966374411089</v>
@@ -8978,7 +8950,7 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B315">
         <v>1.7521736154793044</v>
@@ -8998,7 +8970,7 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B316">
         <v>3.6687229913396191</v>
@@ -9010,15 +8982,15 @@
         <v>0.15937936238029138</v>
       </c>
       <c r="E316" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F316" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B317">
         <v>0.17568397450045525</v>
@@ -9030,15 +9002,15 @@
         <v>0.17170470638727003</v>
       </c>
       <c r="E317" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F317" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B318">
         <v>3.9869483353665438</v>
@@ -9058,7 +9030,7 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B319">
         <v>1.2306476520947833</v>
@@ -9070,15 +9042,15 @@
         <v>0.17183431453177328</v>
       </c>
       <c r="E319" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F319" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B320">
         <v>4.4665233193026843E-2</v>
@@ -9090,15 +9062,15 @@
         <v>0.18771084089616441</v>
       </c>
       <c r="E320" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F320" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B321">
         <v>0.59599137073243424</v>
@@ -9110,15 +9082,15 @@
         <v>0.18315938456083017</v>
       </c>
       <c r="E321" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F321" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B322">
         <v>3.9946505807235591</v>
@@ -9130,15 +9102,15 @@
         <v>0.15325321796801256</v>
       </c>
       <c r="E322" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F322" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B323">
         <v>2.7391643394844114</v>
@@ -9158,7 +9130,7 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B324">
         <v>3.5557507638804529</v>
@@ -9170,15 +9142,15 @@
         <v>0.18779838389052814</v>
       </c>
       <c r="E324" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F324" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B325">
         <v>1.3974378593700014</v>
@@ -9198,7 +9170,7 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B326">
         <v>0.22482107036091747</v>
@@ -9218,7 +9190,7 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B327">
         <v>1.4301851587196763</v>
@@ -9230,15 +9202,15 @@
         <v>0.15416372399898598</v>
       </c>
       <c r="E327" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F327" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B328">
         <v>1.4003006043770498</v>
@@ -9250,15 +9222,15 @@
         <v>0.16642232103488802</v>
       </c>
       <c r="E328" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F328" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B329">
         <v>2.8153117290002752</v>
@@ -9270,15 +9242,15 @@
         <v>0.17825121428629628</v>
       </c>
       <c r="E329" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F329" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B330">
         <v>2.8770280924317095</v>
@@ -9298,7 +9270,7 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B331">
         <v>0.33858888380603558</v>
@@ -9310,15 +9282,15 @@
         <v>0.18459964002026127</v>
       </c>
       <c r="E331" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F331" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B332">
         <v>3.7728309436700549</v>
@@ -9330,15 +9302,15 @@
         <v>0.17600221907784841</v>
       </c>
       <c r="E332" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F332" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B333">
         <v>0.33992367191688677</v>
@@ -9350,15 +9322,15 @@
         <v>0.19064469185101174</v>
       </c>
       <c r="E333" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F333" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B334">
         <v>1.892797864340023</v>
@@ -9370,15 +9342,15 @@
         <v>0.19695993334324996</v>
       </c>
       <c r="E334" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F334" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B335">
         <v>2.6579991487389609</v>
@@ -9390,15 +9362,15 @@
         <v>0.16817292404522852</v>
       </c>
       <c r="E335" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F335" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B336">
         <v>3.6245103869085131</v>
@@ -9418,7 +9390,7 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B337">
         <v>1.9984754399806559</v>
@@ -9438,7 +9410,7 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B338">
         <v>0.31417973278645039</v>
@@ -9458,7 +9430,7 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B339">
         <v>0.44286909820433529</v>
@@ -9478,7 +9450,7 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B340">
         <v>2.4403868945896687</v>
@@ -9498,7 +9470,7 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B341">
         <v>1.3648399701222718</v>
@@ -9510,15 +9482,15 @@
         <v>0.19170558220994324</v>
       </c>
       <c r="E341" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F341" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B342">
         <v>2.5530164283154706</v>
@@ -9530,15 +9502,15 @@
         <v>0.1509913282569435</v>
       </c>
       <c r="E342" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F342" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B343">
         <v>1.6721450310254409</v>
@@ -9550,15 +9522,15 @@
         <v>0.17061104816898212</v>
       </c>
       <c r="E343" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F343" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B344">
         <v>3.9987895319774083</v>
@@ -9578,7 +9550,7 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B345">
         <v>0.57825196907278187</v>
@@ -9590,15 +9562,15 @@
         <v>0.18732003556390669</v>
       </c>
       <c r="E345" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F345" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B346">
         <v>0.66499505560964556</v>
@@ -9610,15 +9582,15 @@
         <v>0.15088327817149663</v>
       </c>
       <c r="E346" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F346" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B347">
         <v>2.2714576185841997</v>
@@ -9630,15 +9602,15 @@
         <v>0.19528455739996697</v>
       </c>
       <c r="E347" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F347" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B348">
         <v>2.6754876785187207</v>
@@ -9650,15 +9622,15 @@
         <v>0.18246411985743535</v>
       </c>
       <c r="E348" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F348" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B349">
         <v>0.97724510800351228</v>
@@ -9670,15 +9642,15 @@
         <v>0.17858405649710157</v>
       </c>
       <c r="E349" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F349" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B350">
         <v>0.63893943391051655</v>
@@ -9698,7 +9670,7 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B351">
         <v>1.3540790358266785</v>
@@ -9710,15 +9682,15 @@
         <v>0.18186399896589617</v>
       </c>
       <c r="E351" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F351" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B352">
         <v>1.9737569486604616</v>
@@ -9738,7 +9710,7 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B353">
         <v>2.6088589388739667</v>
@@ -9758,7 +9730,7 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B354">
         <v>0.50574075129720031</v>
@@ -9770,15 +9742,15 @@
         <v>0.19719391953573095</v>
       </c>
       <c r="E354" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F354" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B355">
         <v>2.7568584104496261</v>
@@ -9798,7 +9770,7 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B356">
         <v>0.88493624963169637</v>
@@ -9810,15 +9782,15 @@
         <v>0.16209364628595824</v>
       </c>
       <c r="E356" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F356" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B357">
         <v>1.3155088569718365</v>
@@ -9838,7 +9810,7 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B358">
         <v>0.12502400186128204</v>
@@ -9850,15 +9822,15 @@
         <v>0.16080263872504885</v>
       </c>
       <c r="E358" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F358" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B359">
         <v>3.7073109499083761</v>
@@ -9870,15 +9842,15 @@
         <v>0.18330064550370076</v>
       </c>
       <c r="E359" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F359" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B360">
         <v>3.984348665853862</v>
@@ -9890,15 +9862,15 @@
         <v>0.16942186704487752</v>
       </c>
       <c r="E360" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F360" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B361">
         <v>2.0438480210335821</v>
@@ -9918,7 +9890,7 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B362">
         <v>0.58264920742141468</v>
@@ -9930,15 +9902,15 @@
         <v>0.18660343232367332</v>
       </c>
       <c r="E362" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F362" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B363">
         <v>1.7809137315594983</v>
@@ -9958,7 +9930,7 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B364">
         <v>3.4609484784114093</v>
@@ -9978,7 +9950,7 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B365">
         <v>0.44751196602419574</v>
@@ -9990,15 +9962,15 @@
         <v>0.18595111936742839</v>
       </c>
       <c r="E365" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F365" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B366">
         <v>1.8281799659649312</v>
@@ -10010,15 +9982,15 @@
         <v>0.17890368054336903</v>
       </c>
       <c r="E366" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F366" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B367">
         <v>0.91319935009207764</v>
@@ -10030,15 +10002,15 @@
         <v>0.18402781727263684</v>
       </c>
       <c r="E367" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F367" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B368">
         <v>3.6819370344720475</v>
@@ -10058,7 +10030,7 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B369">
         <v>2.8151172628927776</v>
@@ -10070,15 +10042,15 @@
         <v>0.15873271661892718</v>
       </c>
       <c r="E369" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F369" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B370">
         <v>3.5719427812448683</v>
@@ -10098,7 +10070,7 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B371">
         <v>1.2872100219072959</v>
@@ -10110,15 +10082,15 @@
         <v>0.15067446685304398</v>
       </c>
       <c r="E371" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F371" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B372">
         <v>2.8884685730008948</v>
@@ -10130,15 +10102,15 @@
         <v>0.15919310513222901</v>
       </c>
       <c r="E372" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F372" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B373">
         <v>0.61144369418686217</v>
@@ -10150,15 +10122,15 @@
         <v>0.16515001051722977</v>
       </c>
       <c r="E373" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F373" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B374">
         <v>0.63944287479491368</v>
@@ -10170,15 +10142,15 @@
         <v>0.16497574086049893</v>
       </c>
       <c r="E374" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F374" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B375">
         <v>0.55028168816931977</v>
@@ -10190,15 +10162,15 @@
         <v>0.16164813600478886</v>
       </c>
       <c r="E375" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F375" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B376">
         <v>0.7703306141779942</v>
@@ -10210,15 +10182,15 @@
         <v>0.15822520756005026</v>
       </c>
       <c r="E376" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F376" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B377">
         <v>3.031205944012473</v>
@@ -10230,15 +10202,15 @@
         <v>0.17000109248370548</v>
       </c>
       <c r="E377" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F377" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B378">
         <v>0.42482373329153233</v>
@@ -10258,7 +10230,7 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B379">
         <v>3.4868341794684929</v>
@@ -10270,15 +10242,15 @@
         <v>0.17092077395985952</v>
       </c>
       <c r="E379" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F379" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B380">
         <v>0.63266031407924661</v>
@@ -10290,15 +10262,15 @@
         <v>0.16411375457567792</v>
       </c>
       <c r="E380" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F380" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B381">
         <v>2.9977152718074604</v>
@@ -10318,7 +10290,7 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B382">
         <v>2.4347260917433902</v>
@@ -10330,15 +10302,15 @@
         <v>0.19471020694297878</v>
       </c>
       <c r="E382" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F382" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B383">
         <v>3.9500716699442626</v>
@@ -10358,7 +10330,7 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B384">
         <v>7.9569578836034438E-2</v>
@@ -10378,7 +10350,7 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B385">
         <v>3.7786438685016055</v>
@@ -10398,7 +10370,7 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B386">
         <v>2.4679743839027868</v>
@@ -10410,15 +10382,15 @@
         <v>0.19529879777608788</v>
       </c>
       <c r="E386" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F386" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B387">
         <v>3.5739833316478529</v>
@@ -10430,15 +10402,15 @@
         <v>0.16678302586438604</v>
       </c>
       <c r="E387" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F387" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B388">
         <v>0.58476602358666474</v>
@@ -10450,15 +10422,15 @@
         <v>0.15524938979076491</v>
       </c>
       <c r="E388" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F388" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B389">
         <v>0.58696990172432573</v>
@@ -10470,15 +10442,15 @@
         <v>0.16938612120050478</v>
       </c>
       <c r="E389" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F389" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B390">
         <v>3.8143404115066146</v>
@@ -10498,7 +10470,7 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B391">
         <v>3.5085168673315716</v>
@@ -10518,7 +10490,7 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B392">
         <v>1.3117991028912237</v>
@@ -10530,15 +10502,15 @@
         <v>0.157143031797188</v>
       </c>
       <c r="E392" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F392" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B393">
         <v>0.35773538169096408</v>
@@ -10550,10 +10522,10 @@
         <v>0.19343848672453937</v>
       </c>
       <c r="E393" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F393" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dataan\Documents\GitHub\Projeto_Previsao_LME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54AE1B9-C5AE-418F-B79F-DD5E90C512F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76729681-6EA2-4E10-B228-80BC812F9327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4095" windowWidth="21600" windowHeight="11385" xr2:uid="{65184691-F81F-4474-B278-83B57392A989}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{65184691-F81F-4474-B278-83B57392A989}"/>
   </bookViews>
   <sheets>
     <sheet name="historicoLME" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="403">
   <si>
     <t>MÊS</t>
   </si>
@@ -1702,7 +1702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B88588FC-39CB-4743-9C6B-52B3AE2932BC}">
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
@@ -2655,8 +2655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492871CB-DD5D-48E2-A95E-0640AB44CB46}">
   <dimension ref="A1:F393"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J388" sqref="J388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2705,7 +2705,8 @@
         <v>0.16404380290736761</v>
       </c>
       <c r="F2">
-        <v>0.16404380290736761</v>
+        <f>E2*B2</f>
+        <v>7.3330271837904082E-2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2724,9 +2725,6 @@
       <c r="E3" t="s">
         <v>401</v>
       </c>
-      <c r="F3" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2745,7 +2743,8 @@
         <v>0.19518560295549087</v>
       </c>
       <c r="F4">
-        <v>0.19518560295549087</v>
+        <f t="shared" ref="F3:F66" si="0">E4*B4</f>
+        <v>3.0599763148673693E-2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2764,9 +2763,6 @@
       <c r="E5" t="s">
         <v>401</v>
       </c>
-      <c r="F5" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2785,7 +2781,8 @@
         <v>0.16246845029596912</v>
       </c>
       <c r="F6">
-        <v>0.16246845029596912</v>
+        <f t="shared" si="0"/>
+        <v>0.13826254777493202</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2804,9 +2801,6 @@
       <c r="E7" t="s">
         <v>401</v>
       </c>
-      <c r="F7" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2824,9 +2818,6 @@
       <c r="E8" t="s">
         <v>401</v>
       </c>
-      <c r="F8" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2845,7 +2836,8 @@
         <v>0.17831065867150772</v>
       </c>
       <c r="F9">
-        <v>0.17831065867150772</v>
+        <f t="shared" si="0"/>
+        <v>0.45137778336548884</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2865,7 +2857,8 @@
         <v>0.19390961845587776</v>
       </c>
       <c r="F10">
-        <v>0.19390961845587776</v>
+        <f t="shared" si="0"/>
+        <v>0.13289939592856712</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2885,7 +2878,8 @@
         <v>0.1649017987607081</v>
       </c>
       <c r="F11">
-        <v>0.1649017987607081</v>
+        <f t="shared" si="0"/>
+        <v>5.9412512414976089E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2905,7 +2899,8 @@
         <v>0.17289995990988127</v>
       </c>
       <c r="F12">
-        <v>0.17289995990988127</v>
+        <f t="shared" si="0"/>
+        <v>0.63163244182908995</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2925,7 +2920,8 @@
         <v>0.19581475556424427</v>
       </c>
       <c r="F13">
-        <v>0.19581475556424427</v>
+        <f t="shared" si="0"/>
+        <v>0.53350924313924675</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -2945,7 +2941,8 @@
         <v>0.15034034845044586</v>
       </c>
       <c r="F14">
-        <v>0.15034034845044586</v>
+        <f t="shared" si="0"/>
+        <v>4.5183899100731388E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2964,9 +2961,6 @@
       <c r="E15" t="s">
         <v>401</v>
       </c>
-      <c r="F15" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2985,7 +2979,8 @@
         <v>0.19326378632506069</v>
       </c>
       <c r="F16">
-        <v>0.19326378632506069</v>
+        <f t="shared" si="0"/>
+        <v>0.46148071052715622</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -3005,7 +3000,8 @@
         <v>0.17819204895689553</v>
       </c>
       <c r="F17">
-        <v>0.17819204895689553</v>
+        <f t="shared" si="0"/>
+        <v>0.61700922945552139</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -3025,7 +3021,8 @@
         <v>0.15739210203697651</v>
       </c>
       <c r="F18">
-        <v>0.15739210203697651</v>
+        <f t="shared" si="0"/>
+        <v>0.13563819441708139</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -3045,7 +3042,8 @@
         <v>0.16668223483011502</v>
       </c>
       <c r="F19">
-        <v>0.16668223483011502</v>
+        <f t="shared" si="0"/>
+        <v>0.31389920210495437</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -3064,9 +3062,6 @@
       <c r="E20" t="s">
         <v>401</v>
       </c>
-      <c r="F20" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -3084,9 +3079,6 @@
       <c r="E21" t="s">
         <v>401</v>
       </c>
-      <c r="F21" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -3104,9 +3096,6 @@
       <c r="E22" t="s">
         <v>401</v>
       </c>
-      <c r="F22" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -3125,7 +3114,8 @@
         <v>0.17567241628320943</v>
       </c>
       <c r="F23">
-        <v>0.17567241628320943</v>
+        <f t="shared" si="0"/>
+        <v>0.41182053207118463</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -3145,7 +3135,8 @@
         <v>0.19985221599810013</v>
       </c>
       <c r="F24">
-        <v>0.19985221599810013</v>
+        <f t="shared" si="0"/>
+        <v>6.7500450938625861E-2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -3164,9 +3155,6 @@
       <c r="E25" t="s">
         <v>401</v>
       </c>
-      <c r="F25" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -3184,9 +3172,6 @@
       <c r="E26" t="s">
         <v>401</v>
       </c>
-      <c r="F26" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -3205,7 +3190,8 @@
         <v>0.19063570161457044</v>
       </c>
       <c r="F27">
-        <v>0.19063570161457044</v>
+        <f t="shared" si="0"/>
+        <v>0.2244475597089195</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -3224,9 +3210,6 @@
       <c r="E28" t="s">
         <v>401</v>
       </c>
-      <c r="F28" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -3245,7 +3228,8 @@
         <v>0.17694752575043737</v>
       </c>
       <c r="F29">
-        <v>0.17694752575043737</v>
+        <f t="shared" si="0"/>
+        <v>0.11825966350653427</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -3264,9 +3248,6 @@
       <c r="E30" t="s">
         <v>401</v>
       </c>
-      <c r="F30" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -3285,7 +3266,8 @@
         <v>0.19270640482409024</v>
       </c>
       <c r="F31">
-        <v>0.19270640482409024</v>
+        <f t="shared" si="0"/>
+        <v>0.52010267601557725</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -3304,9 +3286,6 @@
       <c r="E32" t="s">
         <v>401</v>
       </c>
-      <c r="F32" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -3324,9 +3303,6 @@
       <c r="E33" t="s">
         <v>401</v>
       </c>
-      <c r="F33" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -3344,9 +3320,6 @@
       <c r="E34" t="s">
         <v>401</v>
       </c>
-      <c r="F34" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -3365,7 +3338,8 @@
         <v>0.17955271506907633</v>
       </c>
       <c r="F35">
-        <v>0.17955271506907633</v>
+        <f t="shared" si="0"/>
+        <v>0.45828909969740217</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -3385,7 +3359,8 @@
         <v>0.18931757211511319</v>
       </c>
       <c r="F36">
-        <v>0.18931757211511319</v>
+        <f t="shared" si="0"/>
+        <v>0.54407322801384894</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -3404,9 +3379,6 @@
       <c r="E37" t="s">
         <v>401</v>
       </c>
-      <c r="F37" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -3425,7 +3397,8 @@
         <v>0.18517257846696158</v>
       </c>
       <c r="F38">
-        <v>0.18517257846696158</v>
+        <f t="shared" si="0"/>
+        <v>0.11965205260119555</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -3445,7 +3418,8 @@
         <v>0.1645082726173791</v>
       </c>
       <c r="F39">
-        <v>0.1645082726173791</v>
+        <f t="shared" si="0"/>
+        <v>0.19978639486832059</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -3465,7 +3439,8 @@
         <v>0.18405784072263395</v>
       </c>
       <c r="F40">
-        <v>0.18405784072263395</v>
+        <f t="shared" si="0"/>
+        <v>0.16301375006579266</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -3484,9 +3459,6 @@
       <c r="E41" t="s">
         <v>401</v>
       </c>
-      <c r="F41" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -3505,7 +3477,8 @@
         <v>0.19053305385594027</v>
       </c>
       <c r="F42">
-        <v>0.19053305385594027</v>
+        <f t="shared" si="0"/>
+        <v>0.42462252803539863</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -3524,9 +3497,6 @@
       <c r="E43" t="s">
         <v>401</v>
       </c>
-      <c r="F43" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -3545,7 +3515,8 @@
         <v>0.19859404345994619</v>
       </c>
       <c r="F44">
-        <v>0.19859404345994619</v>
+        <f t="shared" si="0"/>
+        <v>0.59818193841606349</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -3564,9 +3535,6 @@
       <c r="E45" t="s">
         <v>401</v>
       </c>
-      <c r="F45" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -3584,9 +3552,6 @@
       <c r="E46" t="s">
         <v>401</v>
       </c>
-      <c r="F46" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -3605,7 +3570,8 @@
         <v>0.19530593734992321</v>
       </c>
       <c r="F47">
-        <v>0.19530593734992321</v>
+        <f t="shared" si="0"/>
+        <v>0.18098140313242225</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -3624,9 +3590,6 @@
       <c r="E48" t="s">
         <v>401</v>
       </c>
-      <c r="F48" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -3645,7 +3608,8 @@
         <v>0.18828455132741381</v>
       </c>
       <c r="F49">
-        <v>0.18828455132741381</v>
+        <f t="shared" si="0"/>
+        <v>0.19405674631470024</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -3665,7 +3629,8 @@
         <v>0.16501895353292198</v>
       </c>
       <c r="F50">
-        <v>0.16501895353292198</v>
+        <f t="shared" si="0"/>
+        <v>0.22503728930071751</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -3684,9 +3649,6 @@
       <c r="E51" t="s">
         <v>401</v>
       </c>
-      <c r="F51" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
@@ -3704,9 +3666,6 @@
       <c r="E52" t="s">
         <v>401</v>
       </c>
-      <c r="F52" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -3725,7 +3684,8 @@
         <v>0.15550777358282741</v>
       </c>
       <c r="F53">
-        <v>0.15550777358282741</v>
+        <f t="shared" si="0"/>
+        <v>0.49170605719058558</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -3745,7 +3705,8 @@
         <v>0.19278926588493916</v>
       </c>
       <c r="F54">
-        <v>0.19278926588493916</v>
+        <f t="shared" si="0"/>
+        <v>4.2569403323197051E-2</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -3764,9 +3725,6 @@
       <c r="E55" t="s">
         <v>401</v>
       </c>
-      <c r="F55" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -3785,7 +3743,8 @@
         <v>0.16529707791588844</v>
       </c>
       <c r="F56">
-        <v>0.16529707791588844</v>
+        <f t="shared" si="0"/>
+        <v>0.45835074510734897</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -3804,9 +3763,6 @@
       <c r="E57" t="s">
         <v>401</v>
       </c>
-      <c r="F57" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
@@ -3825,7 +3781,8 @@
         <v>0.19811244587140941</v>
       </c>
       <c r="F58">
-        <v>0.19811244587140941</v>
+        <f t="shared" si="0"/>
+        <v>0.76360423966981128</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -3845,7 +3802,8 @@
         <v>0.18545045132249194</v>
       </c>
       <c r="F59">
-        <v>0.18545045132249194</v>
+        <f t="shared" si="0"/>
+        <v>0.57016945752959036</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -3865,7 +3823,8 @@
         <v>0.1962117639650458</v>
       </c>
       <c r="F60">
-        <v>0.1962117639650458</v>
+        <f t="shared" si="0"/>
+        <v>3.9091899502948425E-2</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -3884,9 +3843,6 @@
       <c r="E61" t="s">
         <v>401</v>
       </c>
-      <c r="F61" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -3905,7 +3861,8 @@
         <v>0.17747251705280398</v>
       </c>
       <c r="F62">
-        <v>0.17747251705280398</v>
+        <f t="shared" si="0"/>
+        <v>0.30660463441952857</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -3924,9 +3881,6 @@
       <c r="E63" t="s">
         <v>401</v>
       </c>
-      <c r="F63" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -3944,9 +3898,6 @@
       <c r="E64" t="s">
         <v>401</v>
       </c>
-      <c r="F64" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -3964,9 +3915,6 @@
       <c r="E65" t="s">
         <v>401</v>
       </c>
-      <c r="F65" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
@@ -3984,9 +3932,6 @@
       <c r="E66" t="s">
         <v>401</v>
       </c>
-      <c r="F66" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
@@ -4005,7 +3950,8 @@
         <v>0.19036039615147884</v>
       </c>
       <c r="F67">
-        <v>0.19036039615147884</v>
+        <f t="shared" ref="F67:F130" si="1">E67*B67</f>
+        <v>7.1528868876000143E-2</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -4024,9 +3970,6 @@
       <c r="E68" t="s">
         <v>401</v>
       </c>
-      <c r="F68" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
@@ -4045,7 +3988,8 @@
         <v>0.16388007112611658</v>
       </c>
       <c r="F69">
-        <v>0.16388007112611658</v>
+        <f t="shared" si="1"/>
+        <v>0.111331827920883</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -4065,7 +4009,8 @@
         <v>0.19132606825398274</v>
       </c>
       <c r="F70">
-        <v>0.19132606825398274</v>
+        <f t="shared" si="1"/>
+        <v>0.24853839929791585</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -4085,7 +4030,8 @@
         <v>0.15397436282051793</v>
       </c>
       <c r="F71">
-        <v>0.15397436282051793</v>
+        <f t="shared" si="1"/>
+        <v>0.12689251076737185</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -4104,9 +4050,6 @@
       <c r="E72" t="s">
         <v>401</v>
       </c>
-      <c r="F72" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
@@ -4124,9 +4067,6 @@
       <c r="E73" t="s">
         <v>401</v>
       </c>
-      <c r="F73" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
@@ -4144,9 +4084,6 @@
       <c r="E74" t="s">
         <v>401</v>
       </c>
-      <c r="F74" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
@@ -4164,9 +4101,6 @@
       <c r="E75" t="s">
         <v>401</v>
       </c>
-      <c r="F75" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
@@ -4185,7 +4119,8 @@
         <v>0.15677223012087321</v>
       </c>
       <c r="F76">
-        <v>0.15677223012087321</v>
+        <f t="shared" si="1"/>
+        <v>0.35828231052984794</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -4205,7 +4140,8 @@
         <v>0.16345025014015144</v>
       </c>
       <c r="F77">
-        <v>0.16345025014015144</v>
+        <f t="shared" si="1"/>
+        <v>0.1624313914455959</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -4225,7 +4161,8 @@
         <v>0.15573003989053905</v>
       </c>
       <c r="F78">
-        <v>0.15573003989053905</v>
+        <f t="shared" si="1"/>
+        <v>0.33017281577368951</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -4244,9 +4181,6 @@
       <c r="E79" t="s">
         <v>401</v>
       </c>
-      <c r="F79" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
@@ -4264,9 +4198,6 @@
       <c r="E80" t="s">
         <v>401</v>
       </c>
-      <c r="F80" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
@@ -4284,9 +4215,6 @@
       <c r="E81" t="s">
         <v>401</v>
       </c>
-      <c r="F81" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
@@ -4305,7 +4233,8 @@
         <v>0.17555488808954461</v>
       </c>
       <c r="F82">
-        <v>0.17555488808954461</v>
+        <f t="shared" si="1"/>
+        <v>0.52825761441634822</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -4324,9 +4253,6 @@
       <c r="E83" t="s">
         <v>401</v>
       </c>
-      <c r="F83" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
@@ -4344,9 +4270,6 @@
       <c r="E84" t="s">
         <v>401</v>
       </c>
-      <c r="F84" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
@@ -4364,9 +4287,6 @@
       <c r="E85" t="s">
         <v>401</v>
       </c>
-      <c r="F85" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
@@ -4385,7 +4305,8 @@
         <v>0.18362977347455434</v>
       </c>
       <c r="F86">
-        <v>0.18362977347455434</v>
+        <f t="shared" si="1"/>
+        <v>0.29617098610292991</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -4404,9 +4325,6 @@
       <c r="E87" t="s">
         <v>401</v>
       </c>
-      <c r="F87" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
@@ -4425,7 +4343,8 @@
         <v>0.16145590990218356</v>
       </c>
       <c r="F88">
-        <v>0.16145590990218356</v>
+        <f t="shared" si="1"/>
+        <v>0.38894029691469328</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -4445,7 +4364,8 @@
         <v>0.189626564571934</v>
       </c>
       <c r="F89">
-        <v>0.189626564571934</v>
+        <f t="shared" si="1"/>
+        <v>0.33181941611301041</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -4464,9 +4384,6 @@
       <c r="E90" t="s">
         <v>401</v>
       </c>
-      <c r="F90" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
@@ -4484,9 +4401,6 @@
       <c r="E91" t="s">
         <v>401</v>
       </c>
-      <c r="F91" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
@@ -4504,9 +4418,6 @@
       <c r="E92" t="s">
         <v>401</v>
       </c>
-      <c r="F92" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
@@ -4524,9 +4435,6 @@
       <c r="E93" t="s">
         <v>401</v>
       </c>
-      <c r="F93" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
@@ -4545,7 +4453,8 @@
         <v>0.15629871256083119</v>
       </c>
       <c r="F94">
-        <v>0.15629871256083119</v>
+        <f t="shared" si="1"/>
+        <v>0.23225617759276204</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -4564,9 +4473,6 @@
       <c r="E95" t="s">
         <v>401</v>
       </c>
-      <c r="F95" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
@@ -4584,9 +4490,6 @@
       <c r="E96" t="s">
         <v>401</v>
       </c>
-      <c r="F96" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
@@ -4605,7 +4508,8 @@
         <v>0.19558364344843837</v>
       </c>
       <c r="F97">
-        <v>0.19558364344843837</v>
+        <f t="shared" si="1"/>
+        <v>0.53808626229522405</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -4625,7 +4529,8 @@
         <v>0.17762881876203074</v>
       </c>
       <c r="F98">
-        <v>0.17762881876203074</v>
+        <f t="shared" si="1"/>
+        <v>8.0727027555972913E-2</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -4645,7 +4550,8 @@
         <v>0.1913231438380886</v>
       </c>
       <c r="F99">
-        <v>0.1913231438380886</v>
+        <f t="shared" si="1"/>
+        <v>0.20873900897423109</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -4665,7 +4571,8 @@
         <v>0.19787158974199145</v>
       </c>
       <c r="F100">
-        <v>0.19787158974199145</v>
+        <f t="shared" si="1"/>
+        <v>0.71683553571224867</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -4684,9 +4591,6 @@
       <c r="E101" t="s">
         <v>401</v>
       </c>
-      <c r="F101" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
@@ -4705,7 +4609,8 @@
         <v>0.17029519516269834</v>
       </c>
       <c r="F102">
-        <v>0.17029519516269834</v>
+        <f t="shared" si="1"/>
+        <v>0.39117571102822291</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -4724,9 +4629,6 @@
       <c r="E103" t="s">
         <v>401</v>
       </c>
-      <c r="F103" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
@@ -4745,7 +4647,8 @@
         <v>0.15458790915821732</v>
       </c>
       <c r="F104">
-        <v>0.15458790915821732</v>
+        <f t="shared" si="1"/>
+        <v>0.11414308757244636</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -4765,7 +4668,8 @@
         <v>0.17829130694075102</v>
       </c>
       <c r="F105">
-        <v>0.17829130694075102</v>
+        <f t="shared" si="1"/>
+        <v>7.6757670806782766E-2</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -4785,7 +4689,8 @@
         <v>0.17813154342167339</v>
       </c>
       <c r="F106">
-        <v>0.17813154342167339</v>
+        <f t="shared" si="1"/>
+        <v>0.39786462542351869</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -4805,7 +4710,8 @@
         <v>0.1905595916489175</v>
       </c>
       <c r="F107">
-        <v>0.1905595916489175</v>
+        <f t="shared" si="1"/>
+        <v>5.1719492524875739E-2</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -4825,7 +4731,8 @@
         <v>0.19688034408432953</v>
       </c>
       <c r="F108">
-        <v>0.19688034408432953</v>
+        <f t="shared" si="1"/>
+        <v>0.49155180117035352</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -4845,7 +4752,8 @@
         <v>0.1635727749150358</v>
       </c>
       <c r="F109">
-        <v>0.1635727749150358</v>
+        <f t="shared" si="1"/>
+        <v>0.35094262364404744</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -4864,9 +4772,6 @@
       <c r="E110" t="s">
         <v>401</v>
       </c>
-      <c r="F110" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
@@ -4884,9 +4789,6 @@
       <c r="E111" t="s">
         <v>401</v>
       </c>
-      <c r="F111" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
@@ -4904,9 +4806,6 @@
       <c r="E112" t="s">
         <v>401</v>
       </c>
-      <c r="F112" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
@@ -4924,9 +4823,6 @@
       <c r="E113" t="s">
         <v>401</v>
       </c>
-      <c r="F113" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
@@ -4944,9 +4840,6 @@
       <c r="E114" t="s">
         <v>401</v>
       </c>
-      <c r="F114" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
@@ -4965,7 +4858,8 @@
         <v>0.18577350167514856</v>
       </c>
       <c r="F115">
-        <v>0.18577350167514856</v>
+        <f t="shared" si="1"/>
+        <v>0.56514636209813063</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -4984,9 +4878,6 @@
       <c r="E116" t="s">
         <v>401</v>
       </c>
-      <c r="F116" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
@@ -5004,9 +4895,6 @@
       <c r="E117" t="s">
         <v>401</v>
       </c>
-      <c r="F117" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
@@ -5025,7 +4913,8 @@
         <v>0.1555609621817039</v>
       </c>
       <c r="F118">
-        <v>0.1555609621817039</v>
+        <f t="shared" si="1"/>
+        <v>0.35698597733837983</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -5044,9 +4933,6 @@
       <c r="E119" t="s">
         <v>401</v>
       </c>
-      <c r="F119" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
@@ -5064,9 +4950,6 @@
       <c r="E120" t="s">
         <v>401</v>
       </c>
-      <c r="F120" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
@@ -5084,9 +4967,6 @@
       <c r="E121" t="s">
         <v>401</v>
       </c>
-      <c r="F121" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
@@ -5104,9 +4984,6 @@
       <c r="E122" t="s">
         <v>401</v>
       </c>
-      <c r="F122" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
@@ -5125,7 +5002,8 @@
         <v>0.1651770463341336</v>
       </c>
       <c r="F123">
-        <v>0.1651770463341336</v>
+        <f t="shared" si="1"/>
+        <v>0.23624521782029009</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -5144,9 +5022,6 @@
       <c r="E124" t="s">
         <v>401</v>
       </c>
-      <c r="F124" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
@@ -5164,9 +5039,6 @@
       <c r="E125" t="s">
         <v>401</v>
       </c>
-      <c r="F125" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
@@ -5185,7 +5057,8 @@
         <v>0.19369640003887295</v>
       </c>
       <c r="F126">
-        <v>0.19369640003887295</v>
+        <f t="shared" si="1"/>
+        <v>0.37682266772590112</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -5205,7 +5078,8 @@
         <v>0.18582568308096337</v>
       </c>
       <c r="F127">
-        <v>0.18582568308096337</v>
+        <f t="shared" si="1"/>
+        <v>0.65865316809095109</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -5225,7 +5099,8 @@
         <v>0.1674218969581798</v>
       </c>
       <c r="F128">
-        <v>0.1674218969581798</v>
+        <f t="shared" si="1"/>
+        <v>0.50222704327658241</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -5245,7 +5120,8 @@
         <v>0.15101643172343285</v>
       </c>
       <c r="F129">
-        <v>0.15101643172343285</v>
+        <f t="shared" si="1"/>
+        <v>0.17952197387759036</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -5264,9 +5140,6 @@
       <c r="E130" t="s">
         <v>401</v>
       </c>
-      <c r="F130" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
@@ -5285,7 +5158,8 @@
         <v>0.15920977823558308</v>
       </c>
       <c r="F131">
-        <v>0.15920977823558308</v>
+        <f t="shared" ref="F131:F194" si="2">E131*B131</f>
+        <v>0.39085857162973553</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -5304,9 +5178,6 @@
       <c r="E132" t="s">
         <v>401</v>
       </c>
-      <c r="F132" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
@@ -5324,9 +5195,6 @@
       <c r="E133" t="s">
         <v>401</v>
       </c>
-      <c r="F133" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
@@ -5344,9 +5212,6 @@
       <c r="E134" t="s">
         <v>401</v>
       </c>
-      <c r="F134" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
@@ -5364,9 +5229,6 @@
       <c r="E135" t="s">
         <v>401</v>
       </c>
-      <c r="F135" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
@@ -5384,9 +5246,6 @@
       <c r="E136" t="s">
         <v>401</v>
       </c>
-      <c r="F136" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
@@ -5404,9 +5263,6 @@
       <c r="E137" t="s">
         <v>401</v>
       </c>
-      <c r="F137" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
@@ -5425,7 +5281,8 @@
         <v>0.18338040467228911</v>
       </c>
       <c r="F138">
-        <v>0.18338040467228911</v>
+        <f t="shared" si="2"/>
+        <v>7.259813251150625E-2</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -5444,9 +5301,6 @@
       <c r="E139" t="s">
         <v>401</v>
       </c>
-      <c r="F139" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
@@ -5465,7 +5319,8 @@
         <v>0.19035351148451554</v>
       </c>
       <c r="F140">
-        <v>0.19035351148451554</v>
+        <f t="shared" si="2"/>
+        <v>0.41532778714146562</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -5484,9 +5339,6 @@
       <c r="E141" t="s">
         <v>401</v>
       </c>
-      <c r="F141" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
@@ -5504,9 +5356,6 @@
       <c r="E142" t="s">
         <v>401</v>
       </c>
-      <c r="F142" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
@@ -5524,9 +5373,6 @@
       <c r="E143" t="s">
         <v>401</v>
       </c>
-      <c r="F143" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
@@ -5545,7 +5391,8 @@
         <v>0.1602324243277069</v>
       </c>
       <c r="F144">
-        <v>0.1602324243277069</v>
+        <f t="shared" si="2"/>
+        <v>0.21279403374458045</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -5565,7 +5412,8 @@
         <v>0.19425286682524509</v>
       </c>
       <c r="F145">
-        <v>0.19425286682524509</v>
+        <f t="shared" si="2"/>
+        <v>0.39156239349147004</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -5584,9 +5432,6 @@
       <c r="E146" t="s">
         <v>401</v>
       </c>
-      <c r="F146" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
@@ -5604,9 +5449,6 @@
       <c r="E147" t="s">
         <v>401</v>
       </c>
-      <c r="F147" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
@@ -5625,7 +5467,8 @@
         <v>0.1694413388513118</v>
       </c>
       <c r="F148">
-        <v>0.1694413388513118</v>
+        <f t="shared" si="2"/>
+        <v>0.63689155376246609</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -5644,9 +5487,6 @@
       <c r="E149" t="s">
         <v>401</v>
       </c>
-      <c r="F149" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
@@ -5664,9 +5504,6 @@
       <c r="E150" t="s">
         <v>401</v>
       </c>
-      <c r="F150" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
@@ -5684,9 +5521,6 @@
       <c r="E151" t="s">
         <v>401</v>
       </c>
-      <c r="F151" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
@@ -5704,9 +5538,6 @@
       <c r="E152" t="s">
         <v>401</v>
       </c>
-      <c r="F152" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
@@ -5725,7 +5556,8 @@
         <v>0.15900525642770125</v>
       </c>
       <c r="F153">
-        <v>0.15900525642770125</v>
+        <f t="shared" si="2"/>
+        <v>0.5191895976095483</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -5745,7 +5577,8 @@
         <v>0.16359468285582249</v>
       </c>
       <c r="F154">
-        <v>0.16359468285582249</v>
+        <f t="shared" si="2"/>
+        <v>0.39664488754655552</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -5764,9 +5597,6 @@
       <c r="E155" t="s">
         <v>401</v>
       </c>
-      <c r="F155" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
@@ -5785,7 +5615,8 @@
         <v>0.17350541935717667</v>
       </c>
       <c r="F156">
-        <v>0.17350541935717667</v>
+        <f t="shared" si="2"/>
+        <v>0.24538985094054094</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -5805,7 +5636,8 @@
         <v>0.15197520063069248</v>
       </c>
       <c r="F157">
-        <v>0.15197520063069248</v>
+        <f t="shared" si="2"/>
+        <v>0.40516273087470528</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -5825,7 +5657,8 @@
         <v>0.18943735493211963</v>
       </c>
       <c r="F158">
-        <v>0.18943735493211963</v>
+        <f t="shared" si="2"/>
+        <v>0.60636381955761653</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -5844,9 +5677,6 @@
       <c r="E159" t="s">
         <v>401</v>
       </c>
-      <c r="F159" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
@@ -5864,9 +5694,6 @@
       <c r="E160" t="s">
         <v>401</v>
       </c>
-      <c r="F160" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
@@ -5885,7 +5712,8 @@
         <v>0.18047670911961625</v>
       </c>
       <c r="F161">
-        <v>0.18047670911961625</v>
+        <f t="shared" si="2"/>
+        <v>0.25655278682234661</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -5905,7 +5733,8 @@
         <v>0.19393828674122243</v>
       </c>
       <c r="F162">
-        <v>0.19393828674122243</v>
+        <f t="shared" si="2"/>
+        <v>5.4413273611502208E-2</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -5924,9 +5753,6 @@
       <c r="E163" t="s">
         <v>401</v>
       </c>
-      <c r="F163" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
@@ -5944,9 +5770,6 @@
       <c r="E164" t="s">
         <v>401</v>
       </c>
-      <c r="F164" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
@@ -5965,7 +5788,8 @@
         <v>0.15739433339324649</v>
       </c>
       <c r="F165">
-        <v>0.15739433339324649</v>
+        <f t="shared" si="2"/>
+        <v>0.2094209841418688</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -5985,7 +5809,8 @@
         <v>0.15357349126485781</v>
       </c>
       <c r="F166">
-        <v>0.15357349126485781</v>
+        <f t="shared" si="2"/>
+        <v>0.11220735356949471</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -6005,7 +5830,8 @@
         <v>0.19405022180312195</v>
       </c>
       <c r="F167">
-        <v>0.19405022180312195</v>
+        <f t="shared" si="2"/>
+        <v>0.2519469401009094</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -6025,7 +5851,8 @@
         <v>0.19265033238690357</v>
       </c>
       <c r="F168">
-        <v>0.19265033238690357</v>
+        <f t="shared" si="2"/>
+        <v>0.69531524089742069</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -6044,9 +5871,6 @@
       <c r="E169" t="s">
         <v>401</v>
       </c>
-      <c r="F169" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
@@ -6064,9 +5888,6 @@
       <c r="E170" t="s">
         <v>401</v>
       </c>
-      <c r="F170" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
@@ -6085,7 +5906,8 @@
         <v>0.18082420543715597</v>
       </c>
       <c r="F171">
-        <v>0.18082420543715597</v>
+        <f t="shared" si="2"/>
+        <v>6.7984031512524273E-2</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -6104,9 +5926,6 @@
       <c r="E172" t="s">
         <v>401</v>
       </c>
-      <c r="F172" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
@@ -6125,7 +5944,8 @@
         <v>0.19823111427617793</v>
       </c>
       <c r="F173">
-        <v>0.19823111427617793</v>
+        <f t="shared" si="2"/>
+        <v>0.64921645045530973</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -6144,9 +5964,6 @@
       <c r="E174" t="s">
         <v>401</v>
       </c>
-      <c r="F174" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
@@ -6164,9 +5981,6 @@
       <c r="E175" t="s">
         <v>401</v>
       </c>
-      <c r="F175" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
@@ -6184,9 +5998,6 @@
       <c r="E176" t="s">
         <v>401</v>
       </c>
-      <c r="F176" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
@@ -6205,7 +6016,8 @@
         <v>0.19640193767073114</v>
       </c>
       <c r="F177">
-        <v>0.19640193767073114</v>
+        <f t="shared" si="2"/>
+        <v>0.60565822511927858</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -6225,7 +6037,8 @@
         <v>0.15530064702025409</v>
       </c>
       <c r="F178">
-        <v>0.15530064702025409</v>
+        <f t="shared" si="2"/>
+        <v>0.15611628083530069</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -6244,9 +6057,6 @@
       <c r="E179" t="s">
         <v>401</v>
       </c>
-      <c r="F179" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
@@ -6264,9 +6074,6 @@
       <c r="E180" t="s">
         <v>401</v>
       </c>
-      <c r="F180" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
@@ -6284,9 +6091,6 @@
       <c r="E181" t="s">
         <v>401</v>
       </c>
-      <c r="F181" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
@@ -6304,9 +6108,6 @@
       <c r="E182" t="s">
         <v>401</v>
       </c>
-      <c r="F182" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
@@ -6325,7 +6126,8 @@
         <v>0.15457677582049378</v>
       </c>
       <c r="F183">
-        <v>0.15457677582049378</v>
+        <f t="shared" si="2"/>
+        <v>0.32772931141862299</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -6344,9 +6146,6 @@
       <c r="E184" t="s">
         <v>401</v>
       </c>
-      <c r="F184" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
@@ -6365,7 +6164,8 @@
         <v>0.17970511016416307</v>
       </c>
       <c r="F185">
-        <v>0.17970511016416307</v>
+        <f t="shared" si="2"/>
+        <v>0.46934700853005623</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -6384,9 +6184,6 @@
       <c r="E186" t="s">
         <v>401</v>
       </c>
-      <c r="F186" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
@@ -6404,9 +6201,6 @@
       <c r="E187" t="s">
         <v>401</v>
       </c>
-      <c r="F187" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
@@ -6425,7 +6219,8 @@
         <v>0.19076271803604122</v>
       </c>
       <c r="F188">
-        <v>0.19076271803604122</v>
+        <f t="shared" si="2"/>
+        <v>0.5367379257826117</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -6444,9 +6239,6 @@
       <c r="E189" t="s">
         <v>401</v>
       </c>
-      <c r="F189" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
@@ -6465,7 +6257,8 @@
         <v>0.19653255445125961</v>
       </c>
       <c r="F190">
-        <v>0.19653255445125961</v>
+        <f t="shared" si="2"/>
+        <v>0.35667203137985565</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -6484,9 +6277,6 @@
       <c r="E191" t="s">
         <v>401</v>
       </c>
-      <c r="F191" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
@@ -6504,9 +6294,6 @@
       <c r="E192" t="s">
         <v>401</v>
       </c>
-      <c r="F192" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
@@ -6525,7 +6312,8 @@
         <v>0.15825033513376169</v>
       </c>
       <c r="F193">
-        <v>0.15825033513376169</v>
+        <f t="shared" si="2"/>
+        <v>0.4473655661213124</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -6544,9 +6332,6 @@
       <c r="E194" t="s">
         <v>401</v>
       </c>
-      <c r="F194" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
@@ -6564,9 +6349,6 @@
       <c r="E195" t="s">
         <v>401</v>
       </c>
-      <c r="F195" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
@@ -6584,9 +6366,6 @@
       <c r="E196" t="s">
         <v>401</v>
       </c>
-      <c r="F196" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
@@ -6605,7 +6384,8 @@
         <v>0.19590620959598201</v>
       </c>
       <c r="F197">
-        <v>0.19590620959598201</v>
+        <f t="shared" ref="F195:F258" si="3">E197*B197</f>
+        <v>0.23224788960140252</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -6624,9 +6404,6 @@
       <c r="E198" t="s">
         <v>401</v>
       </c>
-      <c r="F198" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
@@ -6644,9 +6421,6 @@
       <c r="E199" t="s">
         <v>401</v>
       </c>
-      <c r="F199" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
@@ -6664,9 +6438,6 @@
       <c r="E200" t="s">
         <v>401</v>
       </c>
-      <c r="F200" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
@@ -6685,7 +6456,8 @@
         <v>0.15298237238222573</v>
       </c>
       <c r="F201">
-        <v>0.15298237238222573</v>
+        <f t="shared" si="3"/>
+        <v>0.15432793503494338</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -6705,7 +6477,8 @@
         <v>0.19218223517856167</v>
       </c>
       <c r="F202">
-        <v>0.19218223517856167</v>
+        <f t="shared" si="3"/>
+        <v>0.49663660914880381</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -6724,9 +6497,6 @@
       <c r="E203" t="s">
         <v>401</v>
       </c>
-      <c r="F203" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
@@ -6744,9 +6514,6 @@
       <c r="E204" t="s">
         <v>401</v>
       </c>
-      <c r="F204" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
@@ -6765,7 +6532,8 @@
         <v>0.1655422664317015</v>
       </c>
       <c r="F205">
-        <v>0.1655422664317015</v>
+        <f t="shared" si="3"/>
+        <v>0.24017610918893198</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -6784,9 +6552,6 @@
       <c r="E206" t="s">
         <v>401</v>
       </c>
-      <c r="F206" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
@@ -6804,9 +6569,6 @@
       <c r="E207" t="s">
         <v>401</v>
       </c>
-      <c r="F207" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
@@ -6825,7 +6587,8 @@
         <v>0.17558263436909935</v>
       </c>
       <c r="F208">
-        <v>0.17558263436909935</v>
+        <f t="shared" si="3"/>
+        <v>1.462856785105562E-2</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -6844,9 +6607,6 @@
       <c r="E209" t="s">
         <v>401</v>
       </c>
-      <c r="F209" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
@@ -6865,7 +6625,8 @@
         <v>0.1936087512905123</v>
       </c>
       <c r="F210">
-        <v>0.1936087512905123</v>
+        <f t="shared" si="3"/>
+        <v>0.7567010232292013</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -6885,7 +6646,8 @@
         <v>0.19629055288359754</v>
       </c>
       <c r="F211">
-        <v>0.19629055288359754</v>
+        <f t="shared" si="3"/>
+        <v>0.76546576597208393</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -6905,7 +6667,8 @@
         <v>0.19138001988061937</v>
       </c>
       <c r="F212">
-        <v>0.19138001988061937</v>
+        <f t="shared" si="3"/>
+        <v>0.33376064646310988</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -6924,9 +6687,6 @@
       <c r="E213" t="s">
         <v>401</v>
       </c>
-      <c r="F213" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
@@ -6944,9 +6704,6 @@
       <c r="E214" t="s">
         <v>401</v>
       </c>
-      <c r="F214" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
@@ -6965,7 +6722,8 @@
         <v>0.18016638861588422</v>
       </c>
       <c r="F215">
-        <v>0.18016638861588422</v>
+        <f t="shared" si="3"/>
+        <v>0.22520298625230117</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -6984,9 +6742,6 @@
       <c r="E216" t="s">
         <v>401</v>
       </c>
-      <c r="F216" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
@@ -7004,9 +6759,6 @@
       <c r="E217" t="s">
         <v>401</v>
       </c>
-      <c r="F217" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
@@ -7024,9 +6776,6 @@
       <c r="E218" t="s">
         <v>401</v>
       </c>
-      <c r="F218" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
@@ -7044,9 +6793,6 @@
       <c r="E219" t="s">
         <v>401</v>
       </c>
-      <c r="F219" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
@@ -7065,7 +6811,8 @@
         <v>0.15360672696383093</v>
       </c>
       <c r="F220">
-        <v>0.15360672696383093</v>
+        <f t="shared" si="3"/>
+        <v>0.25302709224600017</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
@@ -7084,9 +6831,6 @@
       <c r="E221" t="s">
         <v>401</v>
       </c>
-      <c r="F221" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
@@ -7104,9 +6848,6 @@
       <c r="E222" t="s">
         <v>401</v>
       </c>
-      <c r="F222" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
@@ -7124,9 +6865,6 @@
       <c r="E223" t="s">
         <v>401</v>
       </c>
-      <c r="F223" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
@@ -7145,7 +6883,8 @@
         <v>0.18760969337514991</v>
       </c>
       <c r="F224">
-        <v>0.18760969337514991</v>
+        <f t="shared" si="3"/>
+        <v>0.50347399682972083</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
@@ -7165,7 +6904,8 @@
         <v>0.1859099195955056</v>
       </c>
       <c r="F225">
-        <v>0.1859099195955056</v>
+        <f t="shared" si="3"/>
+        <v>0.14335757277957561</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
@@ -7184,9 +6924,6 @@
       <c r="E226" t="s">
         <v>401</v>
       </c>
-      <c r="F226" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
@@ -7205,7 +6942,8 @@
         <v>0.18891644044458392</v>
       </c>
       <c r="F227">
-        <v>0.18891644044458392</v>
+        <f t="shared" si="3"/>
+        <v>0.5697469083194453</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -7225,7 +6963,8 @@
         <v>0.16405673275753052</v>
       </c>
       <c r="F228">
-        <v>0.16405673275753052</v>
+        <f t="shared" si="3"/>
+        <v>0.55514283872034165</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -7245,7 +6984,8 @@
         <v>0.18412156200246343</v>
       </c>
       <c r="F229">
-        <v>0.18412156200246343</v>
+        <f t="shared" si="3"/>
+        <v>0.32339031270479435</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -7264,9 +7004,6 @@
       <c r="E230" t="s">
         <v>401</v>
       </c>
-      <c r="F230" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
@@ -7285,7 +7022,8 @@
         <v>0.19279280642233004</v>
       </c>
       <c r="F231">
-        <v>0.19279280642233004</v>
+        <f t="shared" si="3"/>
+        <v>7.8912512740130628E-2</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -7305,7 +7043,8 @@
         <v>0.19331474566125731</v>
       </c>
       <c r="F232">
-        <v>0.19331474566125731</v>
+        <f t="shared" si="3"/>
+        <v>0.64003939791840703</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -7325,7 +7064,8 @@
         <v>0.19951337167434693</v>
       </c>
       <c r="F233">
-        <v>0.19951337167434693</v>
+        <f t="shared" si="3"/>
+        <v>0.23843079169806275</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
@@ -7345,7 +7085,8 @@
         <v>0.1772045626884666</v>
       </c>
       <c r="F234">
-        <v>0.1772045626884666</v>
+        <f t="shared" si="3"/>
+        <v>0.47955132253477684</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
@@ -7365,7 +7106,8 @@
         <v>0.19489481263647931</v>
       </c>
       <c r="F235">
-        <v>0.19489481263647931</v>
+        <f t="shared" si="3"/>
+        <v>0.37843164407841434</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
@@ -7384,9 +7126,6 @@
       <c r="E236" t="s">
         <v>401</v>
       </c>
-      <c r="F236" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
@@ -7404,9 +7143,6 @@
       <c r="E237" t="s">
         <v>401</v>
       </c>
-      <c r="F237" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
@@ -7424,9 +7160,6 @@
       <c r="E238" t="s">
         <v>401</v>
       </c>
-      <c r="F238" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
@@ -7444,9 +7177,6 @@
       <c r="E239" t="s">
         <v>401</v>
       </c>
-      <c r="F239" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
@@ -7465,7 +7195,8 @@
         <v>0.16905267729767323</v>
       </c>
       <c r="F240">
-        <v>0.16905267729767323</v>
+        <f t="shared" si="3"/>
+        <v>0.66051550673029746</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
@@ -7485,7 +7216,8 @@
         <v>0.19885654163852076</v>
       </c>
       <c r="F241">
-        <v>0.19885654163852076</v>
+        <f t="shared" si="3"/>
+        <v>0.68170925300699481</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
@@ -7504,9 +7236,6 @@
       <c r="E242" t="s">
         <v>401</v>
       </c>
-      <c r="F242" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
@@ -7524,9 +7253,6 @@
       <c r="E243" t="s">
         <v>401</v>
       </c>
-      <c r="F243" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
@@ -7545,7 +7271,8 @@
         <v>0.16242416989171443</v>
       </c>
       <c r="F244">
-        <v>0.16242416989171443</v>
+        <f t="shared" si="3"/>
+        <v>1.4360303424163603E-2</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -7565,7 +7292,8 @@
         <v>0.15695396726184152</v>
       </c>
       <c r="F245">
-        <v>0.15695396726184152</v>
+        <f t="shared" si="3"/>
+        <v>0.27992437876257814</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -7584,9 +7312,6 @@
       <c r="E246" t="s">
         <v>401</v>
       </c>
-      <c r="F246" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
@@ -7604,9 +7329,6 @@
       <c r="E247" t="s">
         <v>401</v>
       </c>
-      <c r="F247" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
@@ -7624,9 +7346,6 @@
       <c r="E248" t="s">
         <v>401</v>
       </c>
-      <c r="F248" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
@@ -7645,7 +7364,8 @@
         <v>0.17672263085846218</v>
       </c>
       <c r="F249">
-        <v>0.17672263085846218</v>
+        <f t="shared" si="3"/>
+        <v>0.43122415331703845</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -7664,9 +7384,6 @@
       <c r="E250" t="s">
         <v>401</v>
       </c>
-      <c r="F250" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
@@ -7685,7 +7402,8 @@
         <v>0.18911244495558574</v>
       </c>
       <c r="F251">
-        <v>0.18911244495558574</v>
+        <f t="shared" si="3"/>
+        <v>0.66257170096362461</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
@@ -7705,7 +7423,8 @@
         <v>0.16146534269259313</v>
       </c>
       <c r="F252">
-        <v>0.16146534269259313</v>
+        <f t="shared" si="3"/>
+        <v>0.4591720015439224</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
@@ -7724,9 +7443,6 @@
       <c r="E253" t="s">
         <v>401</v>
       </c>
-      <c r="F253" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
@@ -7745,7 +7461,8 @@
         <v>0.17438423878389359</v>
       </c>
       <c r="F254">
-        <v>0.17438423878389359</v>
+        <f t="shared" si="3"/>
+        <v>0.62628133726397506</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
@@ -7764,9 +7481,6 @@
       <c r="E255" t="s">
         <v>401</v>
       </c>
-      <c r="F255" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
@@ -7784,9 +7498,6 @@
       <c r="E256" t="s">
         <v>401</v>
       </c>
-      <c r="F256" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
@@ -7804,9 +7515,6 @@
       <c r="E257" t="s">
         <v>401</v>
       </c>
-      <c r="F257" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
@@ -7824,9 +7532,6 @@
       <c r="E258" t="s">
         <v>401</v>
       </c>
-      <c r="F258" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
@@ -7845,7 +7550,8 @@
         <v>0.16595378070198996</v>
       </c>
       <c r="F259">
-        <v>0.16595378070198996</v>
+        <f t="shared" ref="F259:F322" si="4">E259*B259</f>
+        <v>0.66355744886192125</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
@@ -7864,9 +7570,6 @@
       <c r="E260" t="s">
         <v>401</v>
       </c>
-      <c r="F260" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
@@ -7885,7 +7588,8 @@
         <v>0.15252418666322198</v>
       </c>
       <c r="F261">
-        <v>0.15252418666322198</v>
+        <f t="shared" si="4"/>
+        <v>0.47115661635353046</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
@@ -7905,7 +7609,8 @@
         <v>0.17992992408567063</v>
       </c>
       <c r="F262">
-        <v>0.17992992408567063</v>
+        <f t="shared" si="4"/>
+        <v>0.13899202183723586</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
@@ -7925,7 +7630,8 @@
         <v>0.19926786977605671</v>
       </c>
       <c r="F263">
-        <v>0.19926786977605671</v>
+        <f t="shared" si="4"/>
+        <v>0.68598250970703134</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
@@ -7944,9 +7650,6 @@
       <c r="E264" t="s">
         <v>401</v>
       </c>
-      <c r="F264" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
@@ -7965,7 +7668,8 @@
         <v>0.17718955840816364</v>
       </c>
       <c r="F265">
-        <v>0.17718955840816364</v>
+        <f t="shared" si="4"/>
+        <v>0.60509530819139434</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
@@ -7984,9 +7688,6 @@
       <c r="E266" t="s">
         <v>401</v>
       </c>
-      <c r="F266" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
@@ -8004,9 +7705,6 @@
       <c r="E267" t="s">
         <v>401</v>
       </c>
-      <c r="F267" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
@@ -8024,9 +7722,6 @@
       <c r="E268" t="s">
         <v>401</v>
       </c>
-      <c r="F268" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
@@ -8045,7 +7740,8 @@
         <v>0.17073045011275112</v>
       </c>
       <c r="F269">
-        <v>0.17073045011275112</v>
+        <f t="shared" si="4"/>
+        <v>0.18889948361225598</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
@@ -8064,9 +7760,6 @@
       <c r="E270" t="s">
         <v>401</v>
       </c>
-      <c r="F270" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
@@ -8084,9 +7777,6 @@
       <c r="E271" t="s">
         <v>401</v>
       </c>
-      <c r="F271" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
@@ -8104,9 +7794,6 @@
       <c r="E272" t="s">
         <v>401</v>
       </c>
-      <c r="F272" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
@@ -8124,9 +7811,6 @@
       <c r="E273" t="s">
         <v>401</v>
       </c>
-      <c r="F273" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
@@ -8144,9 +7828,6 @@
       <c r="E274" t="s">
         <v>401</v>
       </c>
-      <c r="F274" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
@@ -8164,9 +7845,6 @@
       <c r="E275" t="s">
         <v>401</v>
       </c>
-      <c r="F275" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
@@ -8184,9 +7862,6 @@
       <c r="E276" t="s">
         <v>401</v>
       </c>
-      <c r="F276" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
@@ -8205,7 +7880,8 @@
         <v>0.17961067114142779</v>
       </c>
       <c r="F277">
-        <v>0.17961067114142779</v>
+        <f t="shared" si="4"/>
+        <v>0.14204836135084958</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
@@ -8225,7 +7901,8 @@
         <v>0.17997177947154341</v>
       </c>
       <c r="F278">
-        <v>0.17997177947154341</v>
+        <f t="shared" si="4"/>
+        <v>0.58645355483290373</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
@@ -8245,7 +7922,8 @@
         <v>0.17007453580747289</v>
       </c>
       <c r="F279">
-        <v>0.17007453580747289</v>
+        <f t="shared" si="4"/>
+        <v>0.46514327322385868</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
@@ -8264,9 +7942,6 @@
       <c r="E280" t="s">
         <v>401</v>
       </c>
-      <c r="F280" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
@@ -8284,9 +7959,6 @@
       <c r="E281" t="s">
         <v>401</v>
       </c>
-      <c r="F281" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
@@ -8305,7 +7977,8 @@
         <v>0.16055861113273584</v>
       </c>
       <c r="F282">
-        <v>0.16055861113273584</v>
+        <f t="shared" si="4"/>
+        <v>0.10481767972691095</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
@@ -8325,7 +7998,8 @@
         <v>0.17469849770840518</v>
       </c>
       <c r="F283">
-        <v>0.17469849770840518</v>
+        <f t="shared" si="4"/>
+        <v>0.30219431831655658</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
@@ -8345,7 +8019,8 @@
         <v>0.16735696676652409</v>
       </c>
       <c r="F284">
-        <v>0.16735696676652409</v>
+        <f t="shared" si="4"/>
+        <v>7.3239463280491815E-2</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
@@ -8365,7 +8040,8 @@
         <v>0.16467366389892785</v>
       </c>
       <c r="F285">
-        <v>0.16467366389892785</v>
+        <f t="shared" si="4"/>
+        <v>0.46880333782985179</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
@@ -8385,7 +8061,8 @@
         <v>0.16102445699577062</v>
       </c>
       <c r="F286">
-        <v>0.16102445699577062</v>
+        <f t="shared" si="4"/>
+        <v>0.30067811002949013</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
@@ -8405,7 +8082,8 @@
         <v>0.16886000745243993</v>
       </c>
       <c r="F287">
-        <v>0.16886000745243993</v>
+        <f t="shared" si="4"/>
+        <v>0.35951474923366467</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
@@ -8424,9 +8102,6 @@
       <c r="E288" t="s">
         <v>401</v>
       </c>
-      <c r="F288" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
@@ -8445,7 +8120,8 @@
         <v>0.17072902669039805</v>
       </c>
       <c r="F289">
-        <v>0.17072902669039805</v>
+        <f t="shared" si="4"/>
+        <v>0.47826473730741048</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
@@ -8464,9 +8140,6 @@
       <c r="E290" t="s">
         <v>401</v>
       </c>
-      <c r="F290" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
@@ -8484,9 +8157,6 @@
       <c r="E291" t="s">
         <v>401</v>
       </c>
-      <c r="F291" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
@@ -8505,7 +8175,8 @@
         <v>0.19910944821015669</v>
       </c>
       <c r="F292">
-        <v>0.19910944821015669</v>
+        <f t="shared" si="4"/>
+        <v>0.40652967316815519</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
@@ -8524,9 +8195,6 @@
       <c r="E293" t="s">
         <v>401</v>
       </c>
-      <c r="F293" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
@@ -8544,9 +8212,6 @@
       <c r="E294" t="s">
         <v>401</v>
       </c>
-      <c r="F294" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
@@ -8564,9 +8229,6 @@
       <c r="E295" t="s">
         <v>401</v>
       </c>
-      <c r="F295" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
@@ -8584,9 +8246,6 @@
       <c r="E296" t="s">
         <v>401</v>
       </c>
-      <c r="F296" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
@@ -8604,9 +8263,6 @@
       <c r="E297" t="s">
         <v>401</v>
       </c>
-      <c r="F297" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
@@ -8625,7 +8281,8 @@
         <v>0.17735035025464474</v>
       </c>
       <c r="F298">
-        <v>0.17735035025464474</v>
+        <f t="shared" si="4"/>
+        <v>0.17399582623010384</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
@@ -8644,9 +8301,6 @@
       <c r="E299" t="s">
         <v>401</v>
       </c>
-      <c r="F299" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
@@ -8665,7 +8319,8 @@
         <v>0.19651690809545269</v>
       </c>
       <c r="F300">
-        <v>0.19651690809545269</v>
+        <f t="shared" si="4"/>
+        <v>0.34050230268872567</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
@@ -8685,7 +8340,8 @@
         <v>0.18642457327307477</v>
       </c>
       <c r="F301">
-        <v>0.18642457327307477</v>
+        <f t="shared" si="4"/>
+        <v>0.56076940660365648</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
@@ -8705,7 +8361,8 @@
         <v>0.17200142235369845</v>
       </c>
       <c r="F302">
-        <v>0.17200142235369845</v>
+        <f t="shared" si="4"/>
+        <v>0.59678406118153526</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
@@ -8725,7 +8382,8 @@
         <v>0.19961985834841464</v>
       </c>
       <c r="F303">
-        <v>0.19961985834841464</v>
+        <f t="shared" si="4"/>
+        <v>5.6575572325572393E-2</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
@@ -8744,9 +8402,6 @@
       <c r="E304" t="s">
         <v>401</v>
       </c>
-      <c r="F304" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
@@ -8765,7 +8420,8 @@
         <v>0.17905195429122231</v>
       </c>
       <c r="F305">
-        <v>0.17905195429122231</v>
+        <f t="shared" si="4"/>
+        <v>0.13150916838466206</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
@@ -8785,7 +8441,8 @@
         <v>0.17930516261865534</v>
       </c>
       <c r="F306">
-        <v>0.17930516261865534</v>
+        <f t="shared" si="4"/>
+        <v>0.56831220829639273</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
@@ -8804,9 +8461,6 @@
       <c r="E307" t="s">
         <v>401</v>
       </c>
-      <c r="F307" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
@@ -8825,7 +8479,8 @@
         <v>0.16509941021595387</v>
       </c>
       <c r="F308">
-        <v>0.16509941021595387</v>
+        <f t="shared" si="4"/>
+        <v>0.42974706363937176</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
@@ -8844,9 +8499,6 @@
       <c r="E309" t="s">
         <v>401</v>
       </c>
-      <c r="F309" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
@@ -8865,7 +8517,8 @@
         <v>0.18115711707581575</v>
       </c>
       <c r="F310">
-        <v>0.18115711707581575</v>
+        <f t="shared" si="4"/>
+        <v>0.415330184080828</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
@@ -8884,9 +8537,6 @@
       <c r="E311" t="s">
         <v>401</v>
       </c>
-      <c r="F311" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
@@ -8904,9 +8554,6 @@
       <c r="E312" t="s">
         <v>401</v>
       </c>
-      <c r="F312" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
@@ -8925,7 +8572,8 @@
         <v>0.1541934551891172</v>
       </c>
       <c r="F313">
-        <v>0.1541934551891172</v>
+        <f t="shared" si="4"/>
+        <v>0.53192681093050498</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
@@ -8945,7 +8593,8 @@
         <v>0.18706956542944489</v>
       </c>
       <c r="F314">
-        <v>0.18706956542944489</v>
+        <f t="shared" si="4"/>
+        <v>0.39283979707752936</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
@@ -8965,7 +8614,8 @@
         <v>0.18952400589310883</v>
       </c>
       <c r="F315">
-        <v>0.18952400589310883</v>
+        <f t="shared" si="4"/>
+        <v>0.33207896262584952</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
@@ -8984,9 +8634,6 @@
       <c r="E316" t="s">
         <v>401</v>
       </c>
-      <c r="F316" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
@@ -9004,9 +8651,6 @@
       <c r="E317" t="s">
         <v>401</v>
       </c>
-      <c r="F317" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
@@ -9025,7 +8669,8 @@
         <v>0.17754765492024607</v>
       </c>
       <c r="F318">
-        <v>0.17754765492024607</v>
+        <f t="shared" si="4"/>
+        <v>0.70787332723250862</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
@@ -9044,9 +8689,6 @@
       <c r="E319" t="s">
         <v>401</v>
       </c>
-      <c r="F319" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
@@ -9064,9 +8706,6 @@
       <c r="E320" t="s">
         <v>401</v>
       </c>
-      <c r="F320" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
@@ -9084,9 +8723,6 @@
       <c r="E321" t="s">
         <v>401</v>
       </c>
-      <c r="F321" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
@@ -9104,9 +8740,6 @@
       <c r="E322" t="s">
         <v>401</v>
       </c>
-      <c r="F322" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
@@ -9125,7 +8758,8 @@
         <v>0.19726283534485944</v>
       </c>
       <c r="F323">
-        <v>0.19726283534485944</v>
+        <f t="shared" ref="F323:F386" si="5">E323*B323</f>
+        <v>0.54033532408222418</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
@@ -9144,9 +8778,6 @@
       <c r="E324" t="s">
         <v>401</v>
       </c>
-      <c r="F324" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
@@ -9165,7 +8796,8 @@
         <v>0.15159762037604965</v>
       </c>
       <c r="F325">
-        <v>0.15159762037604965</v>
+        <f t="shared" si="5"/>
+        <v>0.21184825410389294</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
@@ -9185,7 +8817,8 @@
         <v>0.15319658823332646</v>
       </c>
       <c r="F326">
-        <v>0.15319658823332646</v>
+        <f t="shared" si="5"/>
+        <v>3.4441820942257194E-2</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
@@ -9204,9 +8837,6 @@
       <c r="E327" t="s">
         <v>401</v>
       </c>
-      <c r="F327" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
@@ -9224,9 +8854,6 @@
       <c r="E328" t="s">
         <v>401</v>
       </c>
-      <c r="F328" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
@@ -9244,9 +8871,6 @@
       <c r="E329" t="s">
         <v>401</v>
       </c>
-      <c r="F329" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
@@ -9265,7 +8889,8 @@
         <v>0.19051098822397208</v>
       </c>
       <c r="F330">
-        <v>0.19051098822397208</v>
+        <f t="shared" si="5"/>
+        <v>0.54810546503729429</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
@@ -9284,9 +8909,6 @@
       <c r="E331" t="s">
         <v>401</v>
       </c>
-      <c r="F331" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
@@ -9304,9 +8926,6 @@
       <c r="E332" t="s">
         <v>401</v>
       </c>
-      <c r="F332" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
@@ -9324,9 +8943,6 @@
       <c r="E333" t="s">
         <v>401</v>
       </c>
-      <c r="F333" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
@@ -9344,9 +8960,6 @@
       <c r="E334" t="s">
         <v>401</v>
       </c>
-      <c r="F334" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
@@ -9364,9 +8977,6 @@
       <c r="E335" t="s">
         <v>401</v>
       </c>
-      <c r="F335" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
@@ -9385,7 +8995,8 @@
         <v>0.16106996445329971</v>
       </c>
       <c r="F336">
-        <v>0.16106996445329971</v>
+        <f t="shared" si="5"/>
+        <v>0.58379975917996985</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
@@ -9405,7 +9016,8 @@
         <v>0.15289633817986278</v>
       </c>
       <c r="F337">
-        <v>0.15289633817986278</v>
+        <f t="shared" si="5"/>
+        <v>0.30555957671543243</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
@@ -9425,7 +9037,8 @@
         <v>0.1971377960056668</v>
       </c>
       <c r="F338">
-        <v>0.1971377960056668</v>
+        <f t="shared" si="5"/>
+        <v>6.1936700071170164E-2</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
@@ -9445,7 +9058,8 @@
         <v>0.16937533982857741</v>
       </c>
       <c r="F339">
-        <v>0.16937533982857741</v>
+        <f t="shared" si="5"/>
+        <v>7.5011104007934912E-2</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
@@ -9465,7 +9079,8 @@
         <v>0.15322623123014745</v>
       </c>
       <c r="F340">
-        <v>0.15322623123014745</v>
+        <f t="shared" si="5"/>
+        <v>0.37393128660141806</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
@@ -9484,9 +9099,6 @@
       <c r="E341" t="s">
         <v>401</v>
       </c>
-      <c r="F341" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
@@ -9504,9 +9116,6 @@
       <c r="E342" t="s">
         <v>401</v>
       </c>
-      <c r="F342" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
@@ -9524,9 +9133,6 @@
       <c r="E343" t="s">
         <v>401</v>
       </c>
-      <c r="F343" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
@@ -9545,7 +9151,8 @@
         <v>0.17784366256633213</v>
       </c>
       <c r="F344">
-        <v>0.17784366256633213</v>
+        <f t="shared" si="5"/>
+        <v>0.71115937619877134</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
@@ -9564,9 +9171,6 @@
       <c r="E345" t="s">
         <v>401</v>
       </c>
-      <c r="F345" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
@@ -9584,9 +9188,6 @@
       <c r="E346" t="s">
         <v>401</v>
       </c>
-      <c r="F346" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
@@ -9604,9 +9205,6 @@
       <c r="E347" t="s">
         <v>401</v>
       </c>
-      <c r="F347" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
@@ -9624,9 +9222,6 @@
       <c r="E348" t="s">
         <v>401</v>
       </c>
-      <c r="F348" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
@@ -9644,9 +9239,6 @@
       <c r="E349" t="s">
         <v>401</v>
       </c>
-      <c r="F349" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
@@ -9665,7 +9257,8 @@
         <v>0.17351666218880912</v>
       </c>
       <c r="F350">
-        <v>0.17351666218880912</v>
+        <f t="shared" si="5"/>
+        <v>0.11086663791296003</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
@@ -9684,9 +9277,6 @@
       <c r="E351" t="s">
         <v>401</v>
       </c>
-      <c r="F351" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
@@ -9705,7 +9295,8 @@
         <v>0.17371897979444842</v>
       </c>
       <c r="F352">
-        <v>0.17371897979444842</v>
+        <f t="shared" si="5"/>
+        <v>0.3428790434834989</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
@@ -9725,7 +9316,8 @@
         <v>0.17779018583622733</v>
       </c>
       <c r="F353">
-        <v>0.17779018583622733</v>
+        <f t="shared" si="5"/>
+        <v>0.46382951556290536</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
@@ -9744,9 +9336,6 @@
       <c r="E354" t="s">
         <v>401</v>
       </c>
-      <c r="F354" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
@@ -9765,7 +9354,8 @@
         <v>0.19357967616413696</v>
       </c>
       <c r="F355">
-        <v>0.19357967616413696</v>
+        <f t="shared" si="5"/>
+        <v>0.53367175832521596</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
@@ -9784,9 +9374,6 @@
       <c r="E356" t="s">
         <v>401</v>
       </c>
-      <c r="F356" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
@@ -9805,7 +9392,8 @@
         <v>0.18864782922593837</v>
       </c>
       <c r="F357">
-        <v>0.18864782922593837</v>
+        <f t="shared" si="5"/>
+        <v>0.24816789019523239</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
@@ -9824,9 +9412,6 @@
       <c r="E358" t="s">
         <v>401</v>
       </c>
-      <c r="F358" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
@@ -9844,9 +9429,6 @@
       <c r="E359" t="s">
         <v>401</v>
       </c>
-      <c r="F359" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
@@ -9864,9 +9446,6 @@
       <c r="E360" t="s">
         <v>401</v>
       </c>
-      <c r="F360" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
@@ -9885,7 +9464,8 @@
         <v>0.18248978874554098</v>
       </c>
       <c r="F361">
-        <v>0.18248978874554098</v>
+        <f t="shared" si="5"/>
+        <v>0.37298139358641036</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
@@ -9904,9 +9484,6 @@
       <c r="E362" t="s">
         <v>401</v>
       </c>
-      <c r="F362" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
@@ -9925,7 +9502,8 @@
         <v>0.17389406084256706</v>
       </c>
       <c r="F363">
-        <v>0.17389406084256706</v>
+        <f t="shared" si="5"/>
+        <v>0.30969032079117054</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
@@ -9945,7 +9523,8 @@
         <v>0.17199949350972818</v>
       </c>
       <c r="F364">
-        <v>0.17199949350972818</v>
+        <f t="shared" si="5"/>
+        <v>0.59528138535002684</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
@@ -9964,9 +9543,6 @@
       <c r="E365" t="s">
         <v>401</v>
       </c>
-      <c r="F365" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
@@ -9984,9 +9560,6 @@
       <c r="E366" t="s">
         <v>401</v>
       </c>
-      <c r="F366" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
@@ -10004,9 +9577,6 @@
       <c r="E367" t="s">
         <v>401</v>
       </c>
-      <c r="F367" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
@@ -10025,7 +9595,8 @@
         <v>0.19929383036576909</v>
       </c>
       <c r="F368">
-        <v>0.19929383036576909</v>
+        <f t="shared" si="5"/>
+        <v>0.73378733476551516</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
@@ -10044,9 +9615,6 @@
       <c r="E369" t="s">
         <v>401</v>
       </c>
-      <c r="F369" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
@@ -10065,7 +9633,8 @@
         <v>0.18469467921887206</v>
       </c>
       <c r="F370">
-        <v>0.18469467921887206</v>
+        <f t="shared" si="5"/>
+        <v>0.65971882617018662</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
@@ -10084,9 +9653,6 @@
       <c r="E371" t="s">
         <v>401</v>
       </c>
-      <c r="F371" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
@@ -10104,9 +9670,6 @@
       <c r="E372" t="s">
         <v>401</v>
       </c>
-      <c r="F372" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
@@ -10124,9 +9687,6 @@
       <c r="E373" t="s">
         <v>401</v>
       </c>
-      <c r="F373" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
@@ -10144,9 +9704,6 @@
       <c r="E374" t="s">
         <v>401</v>
       </c>
-      <c r="F374" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
@@ -10164,9 +9721,6 @@
       <c r="E375" t="s">
         <v>401</v>
       </c>
-      <c r="F375" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
@@ -10184,9 +9738,6 @@
       <c r="E376" t="s">
         <v>401</v>
       </c>
-      <c r="F376" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
@@ -10204,9 +9755,6 @@
       <c r="E377" t="s">
         <v>401</v>
       </c>
-      <c r="F377" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
@@ -10225,7 +9773,8 @@
         <v>0.16742541917281081</v>
       </c>
       <c r="F378">
-        <v>0.16742541917281081</v>
+        <f t="shared" si="5"/>
+        <v>7.1126291620893178E-2</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
@@ -10244,9 +9793,6 @@
       <c r="E379" t="s">
         <v>401</v>
       </c>
-      <c r="F379" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
@@ -10264,9 +9810,6 @@
       <c r="E380" t="s">
         <v>401</v>
       </c>
-      <c r="F380" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
@@ -10285,7 +9828,8 @@
         <v>0.17089214693582</v>
       </c>
       <c r="F381">
-        <v>0.17089214693582</v>
+        <f t="shared" si="5"/>
+        <v>0.51228599870147207</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
@@ -10304,9 +9848,6 @@
       <c r="E382" t="s">
         <v>401</v>
       </c>
-      <c r="F382" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
@@ -10325,7 +9866,8 @@
         <v>0.1960359770921731</v>
       </c>
       <c r="F383">
-        <v>0.1960359770921731</v>
+        <f t="shared" si="5"/>
+        <v>0.77435615940163538</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
@@ -10345,7 +9887,8 @@
         <v>0.19546227118254755</v>
       </c>
       <c r="F384">
-        <v>0.19546227118254755</v>
+        <f t="shared" si="5"/>
+        <v>1.555285059633006E-2</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
@@ -10365,7 +9908,8 @@
         <v>0.19810522341287848</v>
       </c>
       <c r="F385">
-        <v>0.19810522341287848</v>
+        <f t="shared" si="5"/>
+        <v>0.74856908776721398</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
@@ -10384,9 +9928,6 @@
       <c r="E386" t="s">
         <v>401</v>
       </c>
-      <c r="F386" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
@@ -10404,9 +9945,6 @@
       <c r="E387" t="s">
         <v>401</v>
       </c>
-      <c r="F387" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
@@ -10424,9 +9962,6 @@
       <c r="E388" t="s">
         <v>401</v>
       </c>
-      <c r="F388" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
@@ -10444,9 +9979,6 @@
       <c r="E389" t="s">
         <v>401</v>
       </c>
-      <c r="F389" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
@@ -10465,7 +9997,8 @@
         <v>0.15914178011211125</v>
       </c>
       <c r="F390">
-        <v>0.15914178011211125</v>
+        <f t="shared" ref="F387:F393" si="6">E390*B390</f>
+        <v>0.60702092304072564</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
@@ -10485,7 +10018,8 @@
         <v>0.19700353927730377</v>
       </c>
       <c r="F391">
-        <v>0.19700353927730377</v>
+        <f t="shared" si="6"/>
+        <v>0.69119024047843802</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
@@ -10504,9 +10038,6 @@
       <c r="E392" t="s">
         <v>401</v>
       </c>
-      <c r="F392" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
@@ -10522,9 +10053,6 @@
         <v>0.19343848672453937</v>
       </c>
       <c r="E393" t="s">
-        <v>401</v>
-      </c>
-      <c r="F393" t="s">
         <v>401</v>
       </c>
     </row>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dataan\Documents\GitHub\Projeto_Previsao_LME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76729681-6EA2-4E10-B228-80BC812F9327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362DD158-C356-4847-B405-462F1C246404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{65184691-F81F-4474-B278-83B57392A989}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{65184691-F81F-4474-B278-83B57392A989}"/>
   </bookViews>
   <sheets>
     <sheet name="historicoLME" sheetId="1" r:id="rId1"/>
@@ -1702,8 +1702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B88588FC-39CB-4743-9C6B-52B3AE2932BC}">
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2655,8 +2655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492871CB-DD5D-48E2-A95E-0640AB44CB46}">
   <dimension ref="A1:F393"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J388" sqref="J388"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dataan\Documents\GitHub\Projeto_Previsao_LME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76729681-6EA2-4E10-B228-80BC812F9327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261945BB-D91B-4DC2-9543-644B477DF92A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{65184691-F81F-4474-B278-83B57392A989}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{65184691-F81F-4474-B278-83B57392A989}"/>
   </bookViews>
   <sheets>
     <sheet name="historicoLME" sheetId="1" r:id="rId1"/>
@@ -1702,8 +1702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B88588FC-39CB-4743-9C6B-52B3AE2932BC}">
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2655,8 +2655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492871CB-DD5D-48E2-A95E-0640AB44CB46}">
   <dimension ref="A1:F393"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J388" sqref="J388"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2743,7 +2743,7 @@
         <v>0.19518560295549087</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F3:F66" si="0">E4*B4</f>
+        <f t="shared" ref="F4:F62" si="0">E4*B4</f>
         <v>3.0599763148673693E-2</v>
       </c>
     </row>
@@ -3950,7 +3950,7 @@
         <v>0.19036039615147884</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F130" si="1">E67*B67</f>
+        <f t="shared" ref="F67:F129" si="1">E67*B67</f>
         <v>7.1528868876000143E-2</v>
       </c>
     </row>
@@ -5158,7 +5158,7 @@
         <v>0.15920977823558308</v>
       </c>
       <c r="F131">
-        <f t="shared" ref="F131:F194" si="2">E131*B131</f>
+        <f t="shared" ref="F131:F193" si="2">E131*B131</f>
         <v>0.39085857162973553</v>
       </c>
     </row>
@@ -6384,7 +6384,7 @@
         <v>0.19590620959598201</v>
       </c>
       <c r="F197">
-        <f t="shared" ref="F195:F258" si="3">E197*B197</f>
+        <f t="shared" ref="F197:F254" si="3">E197*B197</f>
         <v>0.23224788960140252</v>
       </c>
     </row>
@@ -7550,7 +7550,7 @@
         <v>0.16595378070198996</v>
       </c>
       <c r="F259">
-        <f t="shared" ref="F259:F322" si="4">E259*B259</f>
+        <f t="shared" ref="F259:F318" si="4">E259*B259</f>
         <v>0.66355744886192125</v>
       </c>
     </row>
@@ -8758,7 +8758,7 @@
         <v>0.19726283534485944</v>
       </c>
       <c r="F323">
-        <f t="shared" ref="F323:F386" si="5">E323*B323</f>
+        <f t="shared" ref="F323:F385" si="5">E323*B323</f>
         <v>0.54033532408222418</v>
       </c>
     </row>
@@ -9997,7 +9997,7 @@
         <v>0.15914178011211125</v>
       </c>
       <c r="F390">
-        <f t="shared" ref="F387:F393" si="6">E390*B390</f>
+        <f t="shared" ref="F390:F391" si="6">E390*B390</f>
         <v>0.60702092304072564</v>
       </c>
     </row>
